--- a/src/main/resources/templateOut.xlsx
+++ b/src/main/resources/templateOut.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="433">
   <si>
     <t>西安市轨道交通工程施工质量验收技术资料统一用表</t>
   </si>
@@ -134,6 +134,1206 @@
   <si>
     <t>${address}</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高磊0</t>
+  </si>
+  <si>
+    <t>工程名0</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>陕西0</t>
+  </si>
+  <si>
+    <t>高磊1</t>
+  </si>
+  <si>
+    <t>工程名1</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>陕西1</t>
+  </si>
+  <si>
+    <t>高磊2</t>
+  </si>
+  <si>
+    <t>工程名2</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>陕西2</t>
+  </si>
+  <si>
+    <t>高磊3</t>
+  </si>
+  <si>
+    <t>工程名3</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>陕西3</t>
+  </si>
+  <si>
+    <t>高磊4</t>
+  </si>
+  <si>
+    <t>工程名4</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>陕西4</t>
+  </si>
+  <si>
+    <t>高磊5</t>
+  </si>
+  <si>
+    <t>工程名5</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>陕西5</t>
+  </si>
+  <si>
+    <t>高磊6</t>
+  </si>
+  <si>
+    <t>工程名6</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>陕西6</t>
+  </si>
+  <si>
+    <t>高磊7</t>
+  </si>
+  <si>
+    <t>工程名7</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>陕西7</t>
+  </si>
+  <si>
+    <t>高磊8</t>
+  </si>
+  <si>
+    <t>工程名8</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>陕西8</t>
+  </si>
+  <si>
+    <t>高磊9</t>
+  </si>
+  <si>
+    <t>工程名9</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>陕西9</t>
+  </si>
+  <si>
+    <t>高磊10</t>
+  </si>
+  <si>
+    <t>工程名10</t>
+  </si>
+  <si>
+    <t>2710</t>
+  </si>
+  <si>
+    <t>陕西10</t>
+  </si>
+  <si>
+    <t>高磊11</t>
+  </si>
+  <si>
+    <t>工程名11</t>
+  </si>
+  <si>
+    <t>2711</t>
+  </si>
+  <si>
+    <t>陕西11</t>
+  </si>
+  <si>
+    <t>高磊12</t>
+  </si>
+  <si>
+    <t>工程名12</t>
+  </si>
+  <si>
+    <t>2712</t>
+  </si>
+  <si>
+    <t>陕西12</t>
+  </si>
+  <si>
+    <t>高磊13</t>
+  </si>
+  <si>
+    <t>工程名13</t>
+  </si>
+  <si>
+    <t>2713</t>
+  </si>
+  <si>
+    <t>陕西13</t>
+  </si>
+  <si>
+    <t>高磊14</t>
+  </si>
+  <si>
+    <t>工程名14</t>
+  </si>
+  <si>
+    <t>2714</t>
+  </si>
+  <si>
+    <t>陕西14</t>
+  </si>
+  <si>
+    <t>高磊15</t>
+  </si>
+  <si>
+    <t>工程名15</t>
+  </si>
+  <si>
+    <t>2715</t>
+  </si>
+  <si>
+    <t>陕西15</t>
+  </si>
+  <si>
+    <t>高磊16</t>
+  </si>
+  <si>
+    <t>工程名16</t>
+  </si>
+  <si>
+    <t>2716</t>
+  </si>
+  <si>
+    <t>陕西16</t>
+  </si>
+  <si>
+    <t>高磊17</t>
+  </si>
+  <si>
+    <t>工程名17</t>
+  </si>
+  <si>
+    <t>2717</t>
+  </si>
+  <si>
+    <t>陕西17</t>
+  </si>
+  <si>
+    <t>高磊18</t>
+  </si>
+  <si>
+    <t>工程名18</t>
+  </si>
+  <si>
+    <t>2718</t>
+  </si>
+  <si>
+    <t>陕西18</t>
+  </si>
+  <si>
+    <t>高磊19</t>
+  </si>
+  <si>
+    <t>工程名19</t>
+  </si>
+  <si>
+    <t>2719</t>
+  </si>
+  <si>
+    <t>陕西19</t>
+  </si>
+  <si>
+    <t>高磊20</t>
+  </si>
+  <si>
+    <t>工程名20</t>
+  </si>
+  <si>
+    <t>2720</t>
+  </si>
+  <si>
+    <t>陕西20</t>
+  </si>
+  <si>
+    <t>高磊21</t>
+  </si>
+  <si>
+    <t>工程名21</t>
+  </si>
+  <si>
+    <t>2721</t>
+  </si>
+  <si>
+    <t>陕西21</t>
+  </si>
+  <si>
+    <t>高磊22</t>
+  </si>
+  <si>
+    <t>工程名22</t>
+  </si>
+  <si>
+    <t>2722</t>
+  </si>
+  <si>
+    <t>陕西22</t>
+  </si>
+  <si>
+    <t>高磊23</t>
+  </si>
+  <si>
+    <t>工程名23</t>
+  </si>
+  <si>
+    <t>2723</t>
+  </si>
+  <si>
+    <t>陕西23</t>
+  </si>
+  <si>
+    <t>高磊24</t>
+  </si>
+  <si>
+    <t>工程名24</t>
+  </si>
+  <si>
+    <t>2724</t>
+  </si>
+  <si>
+    <t>陕西24</t>
+  </si>
+  <si>
+    <t>高磊25</t>
+  </si>
+  <si>
+    <t>工程名25</t>
+  </si>
+  <si>
+    <t>2725</t>
+  </si>
+  <si>
+    <t>陕西25</t>
+  </si>
+  <si>
+    <t>高磊26</t>
+  </si>
+  <si>
+    <t>工程名26</t>
+  </si>
+  <si>
+    <t>2726</t>
+  </si>
+  <si>
+    <t>陕西26</t>
+  </si>
+  <si>
+    <t>高磊27</t>
+  </si>
+  <si>
+    <t>工程名27</t>
+  </si>
+  <si>
+    <t>2727</t>
+  </si>
+  <si>
+    <t>陕西27</t>
+  </si>
+  <si>
+    <t>高磊28</t>
+  </si>
+  <si>
+    <t>工程名28</t>
+  </si>
+  <si>
+    <t>2728</t>
+  </si>
+  <si>
+    <t>陕西28</t>
+  </si>
+  <si>
+    <t>高磊29</t>
+  </si>
+  <si>
+    <t>工程名29</t>
+  </si>
+  <si>
+    <t>2729</t>
+  </si>
+  <si>
+    <t>陕西29</t>
+  </si>
+  <si>
+    <t>高磊30</t>
+  </si>
+  <si>
+    <t>工程名30</t>
+  </si>
+  <si>
+    <t>2730</t>
+  </si>
+  <si>
+    <t>陕西30</t>
+  </si>
+  <si>
+    <t>高磊31</t>
+  </si>
+  <si>
+    <t>工程名31</t>
+  </si>
+  <si>
+    <t>2731</t>
+  </si>
+  <si>
+    <t>陕西31</t>
+  </si>
+  <si>
+    <t>高磊32</t>
+  </si>
+  <si>
+    <t>工程名32</t>
+  </si>
+  <si>
+    <t>2732</t>
+  </si>
+  <si>
+    <t>陕西32</t>
+  </si>
+  <si>
+    <t>高磊33</t>
+  </si>
+  <si>
+    <t>工程名33</t>
+  </si>
+  <si>
+    <t>2733</t>
+  </si>
+  <si>
+    <t>陕西33</t>
+  </si>
+  <si>
+    <t>高磊34</t>
+  </si>
+  <si>
+    <t>工程名34</t>
+  </si>
+  <si>
+    <t>2734</t>
+  </si>
+  <si>
+    <t>陕西34</t>
+  </si>
+  <si>
+    <t>高磊35</t>
+  </si>
+  <si>
+    <t>工程名35</t>
+  </si>
+  <si>
+    <t>2735</t>
+  </si>
+  <si>
+    <t>陕西35</t>
+  </si>
+  <si>
+    <t>高磊36</t>
+  </si>
+  <si>
+    <t>工程名36</t>
+  </si>
+  <si>
+    <t>2736</t>
+  </si>
+  <si>
+    <t>陕西36</t>
+  </si>
+  <si>
+    <t>高磊37</t>
+  </si>
+  <si>
+    <t>工程名37</t>
+  </si>
+  <si>
+    <t>2737</t>
+  </si>
+  <si>
+    <t>陕西37</t>
+  </si>
+  <si>
+    <t>高磊38</t>
+  </si>
+  <si>
+    <t>工程名38</t>
+  </si>
+  <si>
+    <t>2738</t>
+  </si>
+  <si>
+    <t>陕西38</t>
+  </si>
+  <si>
+    <t>高磊39</t>
+  </si>
+  <si>
+    <t>工程名39</t>
+  </si>
+  <si>
+    <t>2739</t>
+  </si>
+  <si>
+    <t>陕西39</t>
+  </si>
+  <si>
+    <t>高磊40</t>
+  </si>
+  <si>
+    <t>工程名40</t>
+  </si>
+  <si>
+    <t>2740</t>
+  </si>
+  <si>
+    <t>陕西40</t>
+  </si>
+  <si>
+    <t>高磊41</t>
+  </si>
+  <si>
+    <t>工程名41</t>
+  </si>
+  <si>
+    <t>2741</t>
+  </si>
+  <si>
+    <t>陕西41</t>
+  </si>
+  <si>
+    <t>高磊42</t>
+  </si>
+  <si>
+    <t>工程名42</t>
+  </si>
+  <si>
+    <t>2742</t>
+  </si>
+  <si>
+    <t>陕西42</t>
+  </si>
+  <si>
+    <t>高磊43</t>
+  </si>
+  <si>
+    <t>工程名43</t>
+  </si>
+  <si>
+    <t>2743</t>
+  </si>
+  <si>
+    <t>陕西43</t>
+  </si>
+  <si>
+    <t>高磊44</t>
+  </si>
+  <si>
+    <t>工程名44</t>
+  </si>
+  <si>
+    <t>2744</t>
+  </si>
+  <si>
+    <t>陕西44</t>
+  </si>
+  <si>
+    <t>高磊45</t>
+  </si>
+  <si>
+    <t>工程名45</t>
+  </si>
+  <si>
+    <t>2745</t>
+  </si>
+  <si>
+    <t>陕西45</t>
+  </si>
+  <si>
+    <t>高磊46</t>
+  </si>
+  <si>
+    <t>工程名46</t>
+  </si>
+  <si>
+    <t>2746</t>
+  </si>
+  <si>
+    <t>陕西46</t>
+  </si>
+  <si>
+    <t>高磊47</t>
+  </si>
+  <si>
+    <t>工程名47</t>
+  </si>
+  <si>
+    <t>2747</t>
+  </si>
+  <si>
+    <t>陕西47</t>
+  </si>
+  <si>
+    <t>高磊48</t>
+  </si>
+  <si>
+    <t>工程名48</t>
+  </si>
+  <si>
+    <t>2748</t>
+  </si>
+  <si>
+    <t>陕西48</t>
+  </si>
+  <si>
+    <t>高磊49</t>
+  </si>
+  <si>
+    <t>工程名49</t>
+  </si>
+  <si>
+    <t>2749</t>
+  </si>
+  <si>
+    <t>陕西49</t>
+  </si>
+  <si>
+    <t>高磊50</t>
+  </si>
+  <si>
+    <t>工程名50</t>
+  </si>
+  <si>
+    <t>2750</t>
+  </si>
+  <si>
+    <t>陕西50</t>
+  </si>
+  <si>
+    <t>高磊51</t>
+  </si>
+  <si>
+    <t>工程名51</t>
+  </si>
+  <si>
+    <t>2751</t>
+  </si>
+  <si>
+    <t>陕西51</t>
+  </si>
+  <si>
+    <t>高磊52</t>
+  </si>
+  <si>
+    <t>工程名52</t>
+  </si>
+  <si>
+    <t>2752</t>
+  </si>
+  <si>
+    <t>陕西52</t>
+  </si>
+  <si>
+    <t>高磊53</t>
+  </si>
+  <si>
+    <t>工程名53</t>
+  </si>
+  <si>
+    <t>2753</t>
+  </si>
+  <si>
+    <t>陕西53</t>
+  </si>
+  <si>
+    <t>高磊54</t>
+  </si>
+  <si>
+    <t>工程名54</t>
+  </si>
+  <si>
+    <t>2754</t>
+  </si>
+  <si>
+    <t>陕西54</t>
+  </si>
+  <si>
+    <t>高磊55</t>
+  </si>
+  <si>
+    <t>工程名55</t>
+  </si>
+  <si>
+    <t>2755</t>
+  </si>
+  <si>
+    <t>陕西55</t>
+  </si>
+  <si>
+    <t>高磊56</t>
+  </si>
+  <si>
+    <t>工程名56</t>
+  </si>
+  <si>
+    <t>2756</t>
+  </si>
+  <si>
+    <t>陕西56</t>
+  </si>
+  <si>
+    <t>高磊57</t>
+  </si>
+  <si>
+    <t>工程名57</t>
+  </si>
+  <si>
+    <t>2757</t>
+  </si>
+  <si>
+    <t>陕西57</t>
+  </si>
+  <si>
+    <t>高磊58</t>
+  </si>
+  <si>
+    <t>工程名58</t>
+  </si>
+  <si>
+    <t>2758</t>
+  </si>
+  <si>
+    <t>陕西58</t>
+  </si>
+  <si>
+    <t>高磊59</t>
+  </si>
+  <si>
+    <t>工程名59</t>
+  </si>
+  <si>
+    <t>2759</t>
+  </si>
+  <si>
+    <t>陕西59</t>
+  </si>
+  <si>
+    <t>高磊60</t>
+  </si>
+  <si>
+    <t>工程名60</t>
+  </si>
+  <si>
+    <t>2760</t>
+  </si>
+  <si>
+    <t>陕西60</t>
+  </si>
+  <si>
+    <t>高磊61</t>
+  </si>
+  <si>
+    <t>工程名61</t>
+  </si>
+  <si>
+    <t>2761</t>
+  </si>
+  <si>
+    <t>陕西61</t>
+  </si>
+  <si>
+    <t>高磊62</t>
+  </si>
+  <si>
+    <t>工程名62</t>
+  </si>
+  <si>
+    <t>2762</t>
+  </si>
+  <si>
+    <t>陕西62</t>
+  </si>
+  <si>
+    <t>高磊63</t>
+  </si>
+  <si>
+    <t>工程名63</t>
+  </si>
+  <si>
+    <t>2763</t>
+  </si>
+  <si>
+    <t>陕西63</t>
+  </si>
+  <si>
+    <t>高磊64</t>
+  </si>
+  <si>
+    <t>工程名64</t>
+  </si>
+  <si>
+    <t>2764</t>
+  </si>
+  <si>
+    <t>陕西64</t>
+  </si>
+  <si>
+    <t>高磊65</t>
+  </si>
+  <si>
+    <t>工程名65</t>
+  </si>
+  <si>
+    <t>2765</t>
+  </si>
+  <si>
+    <t>陕西65</t>
+  </si>
+  <si>
+    <t>高磊66</t>
+  </si>
+  <si>
+    <t>工程名66</t>
+  </si>
+  <si>
+    <t>2766</t>
+  </si>
+  <si>
+    <t>陕西66</t>
+  </si>
+  <si>
+    <t>高磊67</t>
+  </si>
+  <si>
+    <t>工程名67</t>
+  </si>
+  <si>
+    <t>2767</t>
+  </si>
+  <si>
+    <t>陕西67</t>
+  </si>
+  <si>
+    <t>高磊68</t>
+  </si>
+  <si>
+    <t>工程名68</t>
+  </si>
+  <si>
+    <t>2768</t>
+  </si>
+  <si>
+    <t>陕西68</t>
+  </si>
+  <si>
+    <t>高磊69</t>
+  </si>
+  <si>
+    <t>工程名69</t>
+  </si>
+  <si>
+    <t>2769</t>
+  </si>
+  <si>
+    <t>陕西69</t>
+  </si>
+  <si>
+    <t>高磊70</t>
+  </si>
+  <si>
+    <t>工程名70</t>
+  </si>
+  <si>
+    <t>2770</t>
+  </si>
+  <si>
+    <t>陕西70</t>
+  </si>
+  <si>
+    <t>高磊71</t>
+  </si>
+  <si>
+    <t>工程名71</t>
+  </si>
+  <si>
+    <t>2771</t>
+  </si>
+  <si>
+    <t>陕西71</t>
+  </si>
+  <si>
+    <t>高磊72</t>
+  </si>
+  <si>
+    <t>工程名72</t>
+  </si>
+  <si>
+    <t>2772</t>
+  </si>
+  <si>
+    <t>陕西72</t>
+  </si>
+  <si>
+    <t>高磊73</t>
+  </si>
+  <si>
+    <t>工程名73</t>
+  </si>
+  <si>
+    <t>2773</t>
+  </si>
+  <si>
+    <t>陕西73</t>
+  </si>
+  <si>
+    <t>高磊74</t>
+  </si>
+  <si>
+    <t>工程名74</t>
+  </si>
+  <si>
+    <t>2774</t>
+  </si>
+  <si>
+    <t>陕西74</t>
+  </si>
+  <si>
+    <t>高磊75</t>
+  </si>
+  <si>
+    <t>工程名75</t>
+  </si>
+  <si>
+    <t>2775</t>
+  </si>
+  <si>
+    <t>陕西75</t>
+  </si>
+  <si>
+    <t>高磊76</t>
+  </si>
+  <si>
+    <t>工程名76</t>
+  </si>
+  <si>
+    <t>2776</t>
+  </si>
+  <si>
+    <t>陕西76</t>
+  </si>
+  <si>
+    <t>高磊77</t>
+  </si>
+  <si>
+    <t>工程名77</t>
+  </si>
+  <si>
+    <t>2777</t>
+  </si>
+  <si>
+    <t>陕西77</t>
+  </si>
+  <si>
+    <t>高磊78</t>
+  </si>
+  <si>
+    <t>工程名78</t>
+  </si>
+  <si>
+    <t>2778</t>
+  </si>
+  <si>
+    <t>陕西78</t>
+  </si>
+  <si>
+    <t>高磊79</t>
+  </si>
+  <si>
+    <t>工程名79</t>
+  </si>
+  <si>
+    <t>2779</t>
+  </si>
+  <si>
+    <t>陕西79</t>
+  </si>
+  <si>
+    <t>高磊80</t>
+  </si>
+  <si>
+    <t>工程名80</t>
+  </si>
+  <si>
+    <t>2780</t>
+  </si>
+  <si>
+    <t>陕西80</t>
+  </si>
+  <si>
+    <t>高磊81</t>
+  </si>
+  <si>
+    <t>工程名81</t>
+  </si>
+  <si>
+    <t>2781</t>
+  </si>
+  <si>
+    <t>陕西81</t>
+  </si>
+  <si>
+    <t>高磊82</t>
+  </si>
+  <si>
+    <t>工程名82</t>
+  </si>
+  <si>
+    <t>2782</t>
+  </si>
+  <si>
+    <t>陕西82</t>
+  </si>
+  <si>
+    <t>高磊83</t>
+  </si>
+  <si>
+    <t>工程名83</t>
+  </si>
+  <si>
+    <t>2783</t>
+  </si>
+  <si>
+    <t>陕西83</t>
+  </si>
+  <si>
+    <t>高磊84</t>
+  </si>
+  <si>
+    <t>工程名84</t>
+  </si>
+  <si>
+    <t>2784</t>
+  </si>
+  <si>
+    <t>陕西84</t>
+  </si>
+  <si>
+    <t>高磊85</t>
+  </si>
+  <si>
+    <t>工程名85</t>
+  </si>
+  <si>
+    <t>2785</t>
+  </si>
+  <si>
+    <t>陕西85</t>
+  </si>
+  <si>
+    <t>高磊86</t>
+  </si>
+  <si>
+    <t>工程名86</t>
+  </si>
+  <si>
+    <t>2786</t>
+  </si>
+  <si>
+    <t>陕西86</t>
+  </si>
+  <si>
+    <t>高磊87</t>
+  </si>
+  <si>
+    <t>工程名87</t>
+  </si>
+  <si>
+    <t>2787</t>
+  </si>
+  <si>
+    <t>陕西87</t>
+  </si>
+  <si>
+    <t>高磊88</t>
+  </si>
+  <si>
+    <t>工程名88</t>
+  </si>
+  <si>
+    <t>2788</t>
+  </si>
+  <si>
+    <t>陕西88</t>
+  </si>
+  <si>
+    <t>高磊89</t>
+  </si>
+  <si>
+    <t>工程名89</t>
+  </si>
+  <si>
+    <t>2789</t>
+  </si>
+  <si>
+    <t>陕西89</t>
+  </si>
+  <si>
+    <t>高磊90</t>
+  </si>
+  <si>
+    <t>工程名90</t>
+  </si>
+  <si>
+    <t>2790</t>
+  </si>
+  <si>
+    <t>陕西90</t>
+  </si>
+  <si>
+    <t>高磊91</t>
+  </si>
+  <si>
+    <t>工程名91</t>
+  </si>
+  <si>
+    <t>2791</t>
+  </si>
+  <si>
+    <t>陕西91</t>
+  </si>
+  <si>
+    <t>高磊92</t>
+  </si>
+  <si>
+    <t>工程名92</t>
+  </si>
+  <si>
+    <t>2792</t>
+  </si>
+  <si>
+    <t>陕西92</t>
+  </si>
+  <si>
+    <t>高磊93</t>
+  </si>
+  <si>
+    <t>工程名93</t>
+  </si>
+  <si>
+    <t>2793</t>
+  </si>
+  <si>
+    <t>陕西93</t>
+  </si>
+  <si>
+    <t>高磊94</t>
+  </si>
+  <si>
+    <t>工程名94</t>
+  </si>
+  <si>
+    <t>2794</t>
+  </si>
+  <si>
+    <t>陕西94</t>
+  </si>
+  <si>
+    <t>高磊95</t>
+  </si>
+  <si>
+    <t>工程名95</t>
+  </si>
+  <si>
+    <t>2795</t>
+  </si>
+  <si>
+    <t>陕西95</t>
+  </si>
+  <si>
+    <t>高磊96</t>
+  </si>
+  <si>
+    <t>工程名96</t>
+  </si>
+  <si>
+    <t>2796</t>
+  </si>
+  <si>
+    <t>陕西96</t>
+  </si>
+  <si>
+    <t>高磊97</t>
+  </si>
+  <si>
+    <t>工程名97</t>
+  </si>
+  <si>
+    <t>2797</t>
+  </si>
+  <si>
+    <t>陕西97</t>
+  </si>
+  <si>
+    <t>高磊98</t>
+  </si>
+  <si>
+    <t>工程名98</t>
+  </si>
+  <si>
+    <t>2798</t>
+  </si>
+  <si>
+    <t>陕西98</t>
+  </si>
+  <si>
+    <t>高磊99</t>
+  </si>
+  <si>
+    <t>工程名99</t>
+  </si>
+  <si>
+    <t>2799</t>
+  </si>
+  <si>
+    <t>陕西99</t>
   </si>
 </sst>
 </file>
@@ -258,7 +1458,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -398,6 +1598,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -408,7 +1626,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -634,6 +1852,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -654,134 +1873,174 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="85793" cy="177279"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C276B7-FEBB-49A0-9463-3249880306F0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+<xml-fragment xmlns:spr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+    <xdr:oneCellAnchor>
+      <xdr:from>
+        <xdr:col>0</xdr:col>
+        <xdr:colOff>0</xdr:colOff>
+        <xdr:row>6</xdr:row>
+        <xdr:rowOff>0</xdr:rowOff>
+      </xdr:from>
+      <xdr:ext cx="85793" cy="177279"/>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="Text Box 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C276B7-FEBB-49A0-9463-3249880306F0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="1504950"/>
+            <a:ext cx="85793" cy="177279"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="none" lIns="18288" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:clientData/>
+    </xdr:oneCellAnchor>
+  </xdr:wsDr>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>8</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>11</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>9</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>12</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1504950"/>
-          <a:ext cx="85793" cy="177279"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="18288" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="zh-CN"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+</xml-fragment>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1260,16 +2519,16 @@
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E12" s="31"/>
       <c r="F12" s="27"/>
@@ -1277,130 +2536,2003 @@
       <c r="H12" s="27"/>
       <c r="I12" s="29"/>
     </row>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="41" t="s">
+    <row r="13">
+      <c r="A13" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="75" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="75"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="75" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="75" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="75" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="75"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="75" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="75" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="75"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" s="75" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="75" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" s="75" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" s="75" t="s">
+        <v>163</v>
+      </c>
+      <c r="D44" s="75" t="s">
+        <v>164</v>
+      </c>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="75"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="B45" s="75" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="D45" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="E45" s="75"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="75"/>
+      <c r="I45" s="75"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="B46" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="D46" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="75"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="75" t="s">
+        <v>173</v>
+      </c>
+      <c r="B47" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" s="75" t="s">
+        <v>175</v>
+      </c>
+      <c r="D47" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="75"/>
+      <c r="H47" s="75"/>
+      <c r="I47" s="75"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="B48" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" s="75" t="s">
+        <v>179</v>
+      </c>
+      <c r="D48" s="75" t="s">
+        <v>180</v>
+      </c>
+      <c r="E48" s="75"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="75"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="B49" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="C49" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="D49" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="E49" s="75"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="75"/>
+      <c r="H49" s="75"/>
+      <c r="I49" s="75"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="75" t="s">
+        <v>185</v>
+      </c>
+      <c r="B50" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="D50" s="75" t="s">
+        <v>188</v>
+      </c>
+      <c r="E50" s="75"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="75"/>
+      <c r="H50" s="75"/>
+      <c r="I50" s="75"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="75" t="s">
+        <v>189</v>
+      </c>
+      <c r="B51" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="C51" s="75" t="s">
+        <v>191</v>
+      </c>
+      <c r="D51" s="75" t="s">
+        <v>192</v>
+      </c>
+      <c r="E51" s="75"/>
+      <c r="F51" s="75"/>
+      <c r="G51" s="75"/>
+      <c r="H51" s="75"/>
+      <c r="I51" s="75"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="75" t="s">
+        <v>193</v>
+      </c>
+      <c r="B52" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="D52" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="E52" s="75"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="75"/>
+      <c r="I52" s="75"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="75" t="s">
+        <v>197</v>
+      </c>
+      <c r="B53" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="C53" s="75" t="s">
+        <v>199</v>
+      </c>
+      <c r="D53" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="E53" s="75"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="75"/>
+      <c r="H53" s="75"/>
+      <c r="I53" s="75"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="75" t="s">
+        <v>201</v>
+      </c>
+      <c r="B54" s="75" t="s">
+        <v>202</v>
+      </c>
+      <c r="C54" s="75" t="s">
+        <v>203</v>
+      </c>
+      <c r="D54" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="75"/>
+      <c r="H54" s="75"/>
+      <c r="I54" s="75"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="75" t="s">
+        <v>205</v>
+      </c>
+      <c r="B55" s="75" t="s">
+        <v>206</v>
+      </c>
+      <c r="C55" s="75" t="s">
+        <v>207</v>
+      </c>
+      <c r="D55" s="75" t="s">
+        <v>208</v>
+      </c>
+      <c r="E55" s="75"/>
+      <c r="F55" s="75"/>
+      <c r="G55" s="75"/>
+      <c r="H55" s="75"/>
+      <c r="I55" s="75"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="75" t="s">
+        <v>209</v>
+      </c>
+      <c r="B56" s="75" t="s">
+        <v>210</v>
+      </c>
+      <c r="C56" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="D56" s="75" t="s">
+        <v>212</v>
+      </c>
+      <c r="E56" s="75"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="75"/>
+      <c r="I56" s="75"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="75" t="s">
+        <v>213</v>
+      </c>
+      <c r="B57" s="75" t="s">
+        <v>214</v>
+      </c>
+      <c r="C57" s="75" t="s">
+        <v>215</v>
+      </c>
+      <c r="D57" s="75" t="s">
+        <v>216</v>
+      </c>
+      <c r="E57" s="75"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="75"/>
+      <c r="H57" s="75"/>
+      <c r="I57" s="75"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="75" t="s">
+        <v>217</v>
+      </c>
+      <c r="B58" s="75" t="s">
+        <v>218</v>
+      </c>
+      <c r="C58" s="75" t="s">
+        <v>219</v>
+      </c>
+      <c r="D58" s="75" t="s">
+        <v>220</v>
+      </c>
+      <c r="E58" s="75"/>
+      <c r="F58" s="75"/>
+      <c r="G58" s="75"/>
+      <c r="H58" s="75"/>
+      <c r="I58" s="75"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="75" t="s">
+        <v>221</v>
+      </c>
+      <c r="B59" s="75" t="s">
+        <v>222</v>
+      </c>
+      <c r="C59" s="75" t="s">
+        <v>223</v>
+      </c>
+      <c r="D59" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="E59" s="75"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="75"/>
+      <c r="H59" s="75"/>
+      <c r="I59" s="75"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="B60" s="75" t="s">
+        <v>226</v>
+      </c>
+      <c r="C60" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="D60" s="75" t="s">
+        <v>228</v>
+      </c>
+      <c r="E60" s="75"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="75"/>
+      <c r="H60" s="75"/>
+      <c r="I60" s="75"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="75" t="s">
+        <v>229</v>
+      </c>
+      <c r="B61" s="75" t="s">
+        <v>230</v>
+      </c>
+      <c r="C61" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="D61" s="75" t="s">
+        <v>232</v>
+      </c>
+      <c r="E61" s="75"/>
+      <c r="F61" s="75"/>
+      <c r="G61" s="75"/>
+      <c r="H61" s="75"/>
+      <c r="I61" s="75"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="75" t="s">
+        <v>233</v>
+      </c>
+      <c r="B62" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="C62" s="75" t="s">
+        <v>235</v>
+      </c>
+      <c r="D62" s="75" t="s">
+        <v>236</v>
+      </c>
+      <c r="E62" s="75"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="75"/>
+      <c r="H62" s="75"/>
+      <c r="I62" s="75"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="75" t="s">
+        <v>237</v>
+      </c>
+      <c r="B63" s="75" t="s">
+        <v>238</v>
+      </c>
+      <c r="C63" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="D63" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="E63" s="75"/>
+      <c r="F63" s="75"/>
+      <c r="G63" s="75"/>
+      <c r="H63" s="75"/>
+      <c r="I63" s="75"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="75" t="s">
+        <v>241</v>
+      </c>
+      <c r="B64" s="75" t="s">
+        <v>242</v>
+      </c>
+      <c r="C64" s="75" t="s">
+        <v>243</v>
+      </c>
+      <c r="D64" s="75" t="s">
+        <v>244</v>
+      </c>
+      <c r="E64" s="75"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="75"/>
+      <c r="H64" s="75"/>
+      <c r="I64" s="75"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="75" t="s">
+        <v>245</v>
+      </c>
+      <c r="B65" s="75" t="s">
+        <v>246</v>
+      </c>
+      <c r="C65" s="75" t="s">
+        <v>247</v>
+      </c>
+      <c r="D65" s="75" t="s">
+        <v>248</v>
+      </c>
+      <c r="E65" s="75"/>
+      <c r="F65" s="75"/>
+      <c r="G65" s="75"/>
+      <c r="H65" s="75"/>
+      <c r="I65" s="75"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="75" t="s">
+        <v>249</v>
+      </c>
+      <c r="B66" s="75" t="s">
+        <v>250</v>
+      </c>
+      <c r="C66" s="75" t="s">
+        <v>251</v>
+      </c>
+      <c r="D66" s="75" t="s">
+        <v>252</v>
+      </c>
+      <c r="E66" s="75"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="75"/>
+      <c r="H66" s="75"/>
+      <c r="I66" s="75"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="75" t="s">
+        <v>253</v>
+      </c>
+      <c r="B67" s="75" t="s">
+        <v>254</v>
+      </c>
+      <c r="C67" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="D67" s="75" t="s">
+        <v>256</v>
+      </c>
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="75"/>
+      <c r="H67" s="75"/>
+      <c r="I67" s="75"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="75" t="s">
+        <v>257</v>
+      </c>
+      <c r="B68" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="C68" s="75" t="s">
+        <v>259</v>
+      </c>
+      <c r="D68" s="75" t="s">
+        <v>260</v>
+      </c>
+      <c r="E68" s="75"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="75"/>
+      <c r="H68" s="75"/>
+      <c r="I68" s="75"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="75" t="s">
+        <v>261</v>
+      </c>
+      <c r="B69" s="75" t="s">
+        <v>262</v>
+      </c>
+      <c r="C69" s="75" t="s">
+        <v>263</v>
+      </c>
+      <c r="D69" s="75" t="s">
+        <v>264</v>
+      </c>
+      <c r="E69" s="75"/>
+      <c r="F69" s="75"/>
+      <c r="G69" s="75"/>
+      <c r="H69" s="75"/>
+      <c r="I69" s="75"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="B70" s="75" t="s">
+        <v>266</v>
+      </c>
+      <c r="C70" s="75" t="s">
+        <v>267</v>
+      </c>
+      <c r="D70" s="75" t="s">
+        <v>268</v>
+      </c>
+      <c r="E70" s="75"/>
+      <c r="F70" s="75"/>
+      <c r="G70" s="75"/>
+      <c r="H70" s="75"/>
+      <c r="I70" s="75"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="75" t="s">
+        <v>269</v>
+      </c>
+      <c r="B71" s="75" t="s">
+        <v>270</v>
+      </c>
+      <c r="C71" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="D71" s="75" t="s">
+        <v>272</v>
+      </c>
+      <c r="E71" s="75"/>
+      <c r="F71" s="75"/>
+      <c r="G71" s="75"/>
+      <c r="H71" s="75"/>
+      <c r="I71" s="75"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="75" t="s">
+        <v>273</v>
+      </c>
+      <c r="B72" s="75" t="s">
+        <v>274</v>
+      </c>
+      <c r="C72" s="75" t="s">
+        <v>275</v>
+      </c>
+      <c r="D72" s="75" t="s">
+        <v>276</v>
+      </c>
+      <c r="E72" s="75"/>
+      <c r="F72" s="75"/>
+      <c r="G72" s="75"/>
+      <c r="H72" s="75"/>
+      <c r="I72" s="75"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="B73" s="75" t="s">
+        <v>278</v>
+      </c>
+      <c r="C73" s="75" t="s">
+        <v>279</v>
+      </c>
+      <c r="D73" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="E73" s="75"/>
+      <c r="F73" s="75"/>
+      <c r="G73" s="75"/>
+      <c r="H73" s="75"/>
+      <c r="I73" s="75"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="75" t="s">
+        <v>281</v>
+      </c>
+      <c r="B74" s="75" t="s">
+        <v>282</v>
+      </c>
+      <c r="C74" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="D74" s="75" t="s">
+        <v>284</v>
+      </c>
+      <c r="E74" s="75"/>
+      <c r="F74" s="75"/>
+      <c r="G74" s="75"/>
+      <c r="H74" s="75"/>
+      <c r="I74" s="75"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="75" t="s">
+        <v>285</v>
+      </c>
+      <c r="B75" s="75" t="s">
+        <v>286</v>
+      </c>
+      <c r="C75" s="75" t="s">
+        <v>287</v>
+      </c>
+      <c r="D75" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="E75" s="75"/>
+      <c r="F75" s="75"/>
+      <c r="G75" s="75"/>
+      <c r="H75" s="75"/>
+      <c r="I75" s="75"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="B76" s="75" t="s">
+        <v>290</v>
+      </c>
+      <c r="C76" s="75" t="s">
+        <v>291</v>
+      </c>
+      <c r="D76" s="75" t="s">
+        <v>292</v>
+      </c>
+      <c r="E76" s="75"/>
+      <c r="F76" s="75"/>
+      <c r="G76" s="75"/>
+      <c r="H76" s="75"/>
+      <c r="I76" s="75"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="75" t="s">
+        <v>293</v>
+      </c>
+      <c r="B77" s="75" t="s">
+        <v>294</v>
+      </c>
+      <c r="C77" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="D77" s="75" t="s">
+        <v>296</v>
+      </c>
+      <c r="E77" s="75"/>
+      <c r="F77" s="75"/>
+      <c r="G77" s="75"/>
+      <c r="H77" s="75"/>
+      <c r="I77" s="75"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="75" t="s">
+        <v>297</v>
+      </c>
+      <c r="B78" s="75" t="s">
+        <v>298</v>
+      </c>
+      <c r="C78" s="75" t="s">
+        <v>299</v>
+      </c>
+      <c r="D78" s="75" t="s">
+        <v>300</v>
+      </c>
+      <c r="E78" s="75"/>
+      <c r="F78" s="75"/>
+      <c r="G78" s="75"/>
+      <c r="H78" s="75"/>
+      <c r="I78" s="75"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="75" t="s">
+        <v>301</v>
+      </c>
+      <c r="B79" s="75" t="s">
+        <v>302</v>
+      </c>
+      <c r="C79" s="75" t="s">
+        <v>303</v>
+      </c>
+      <c r="D79" s="75" t="s">
+        <v>304</v>
+      </c>
+      <c r="E79" s="75"/>
+      <c r="F79" s="75"/>
+      <c r="G79" s="75"/>
+      <c r="H79" s="75"/>
+      <c r="I79" s="75"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="75" t="s">
+        <v>305</v>
+      </c>
+      <c r="B80" s="75" t="s">
+        <v>306</v>
+      </c>
+      <c r="C80" s="75" t="s">
+        <v>307</v>
+      </c>
+      <c r="D80" s="75" t="s">
+        <v>308</v>
+      </c>
+      <c r="E80" s="75"/>
+      <c r="F80" s="75"/>
+      <c r="G80" s="75"/>
+      <c r="H80" s="75"/>
+      <c r="I80" s="75"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="75" t="s">
+        <v>309</v>
+      </c>
+      <c r="B81" s="75" t="s">
+        <v>310</v>
+      </c>
+      <c r="C81" s="75" t="s">
+        <v>311</v>
+      </c>
+      <c r="D81" s="75" t="s">
+        <v>312</v>
+      </c>
+      <c r="E81" s="75"/>
+      <c r="F81" s="75"/>
+      <c r="G81" s="75"/>
+      <c r="H81" s="75"/>
+      <c r="I81" s="75"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="75" t="s">
+        <v>313</v>
+      </c>
+      <c r="B82" s="75" t="s">
+        <v>314</v>
+      </c>
+      <c r="C82" s="75" t="s">
+        <v>315</v>
+      </c>
+      <c r="D82" s="75" t="s">
+        <v>316</v>
+      </c>
+      <c r="E82" s="75"/>
+      <c r="F82" s="75"/>
+      <c r="G82" s="75"/>
+      <c r="H82" s="75"/>
+      <c r="I82" s="75"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="75" t="s">
+        <v>317</v>
+      </c>
+      <c r="B83" s="75" t="s">
+        <v>318</v>
+      </c>
+      <c r="C83" s="75" t="s">
+        <v>319</v>
+      </c>
+      <c r="D83" s="75" t="s">
+        <v>320</v>
+      </c>
+      <c r="E83" s="75"/>
+      <c r="F83" s="75"/>
+      <c r="G83" s="75"/>
+      <c r="H83" s="75"/>
+      <c r="I83" s="75"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="75" t="s">
+        <v>321</v>
+      </c>
+      <c r="B84" s="75" t="s">
+        <v>322</v>
+      </c>
+      <c r="C84" s="75" t="s">
+        <v>323</v>
+      </c>
+      <c r="D84" s="75" t="s">
+        <v>324</v>
+      </c>
+      <c r="E84" s="75"/>
+      <c r="F84" s="75"/>
+      <c r="G84" s="75"/>
+      <c r="H84" s="75"/>
+      <c r="I84" s="75"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="75" t="s">
+        <v>325</v>
+      </c>
+      <c r="B85" s="75" t="s">
+        <v>326</v>
+      </c>
+      <c r="C85" s="75" t="s">
+        <v>327</v>
+      </c>
+      <c r="D85" s="75" t="s">
+        <v>328</v>
+      </c>
+      <c r="E85" s="75"/>
+      <c r="F85" s="75"/>
+      <c r="G85" s="75"/>
+      <c r="H85" s="75"/>
+      <c r="I85" s="75"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="75" t="s">
+        <v>329</v>
+      </c>
+      <c r="B86" s="75" t="s">
+        <v>330</v>
+      </c>
+      <c r="C86" s="75" t="s">
+        <v>331</v>
+      </c>
+      <c r="D86" s="75" t="s">
+        <v>332</v>
+      </c>
+      <c r="E86" s="75"/>
+      <c r="F86" s="75"/>
+      <c r="G86" s="75"/>
+      <c r="H86" s="75"/>
+      <c r="I86" s="75"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="75" t="s">
+        <v>333</v>
+      </c>
+      <c r="B87" s="75" t="s">
+        <v>334</v>
+      </c>
+      <c r="C87" s="75" t="s">
+        <v>335</v>
+      </c>
+      <c r="D87" s="75" t="s">
+        <v>336</v>
+      </c>
+      <c r="E87" s="75"/>
+      <c r="F87" s="75"/>
+      <c r="G87" s="75"/>
+      <c r="H87" s="75"/>
+      <c r="I87" s="75"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="75" t="s">
+        <v>337</v>
+      </c>
+      <c r="B88" s="75" t="s">
+        <v>338</v>
+      </c>
+      <c r="C88" s="75" t="s">
+        <v>339</v>
+      </c>
+      <c r="D88" s="75" t="s">
+        <v>340</v>
+      </c>
+      <c r="E88" s="75"/>
+      <c r="F88" s="75"/>
+      <c r="G88" s="75"/>
+      <c r="H88" s="75"/>
+      <c r="I88" s="75"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="B89" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C89" s="75" t="s">
+        <v>343</v>
+      </c>
+      <c r="D89" s="75" t="s">
+        <v>344</v>
+      </c>
+      <c r="E89" s="75"/>
+      <c r="F89" s="75"/>
+      <c r="G89" s="75"/>
+      <c r="H89" s="75"/>
+      <c r="I89" s="75"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="75" t="s">
+        <v>345</v>
+      </c>
+      <c r="B90" s="75" t="s">
+        <v>346</v>
+      </c>
+      <c r="C90" s="75" t="s">
+        <v>347</v>
+      </c>
+      <c r="D90" s="75" t="s">
+        <v>348</v>
+      </c>
+      <c r="E90" s="75"/>
+      <c r="F90" s="75"/>
+      <c r="G90" s="75"/>
+      <c r="H90" s="75"/>
+      <c r="I90" s="75"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="75" t="s">
+        <v>349</v>
+      </c>
+      <c r="B91" s="75" t="s">
+        <v>350</v>
+      </c>
+      <c r="C91" s="75" t="s">
+        <v>351</v>
+      </c>
+      <c r="D91" s="75" t="s">
+        <v>352</v>
+      </c>
+      <c r="E91" s="75"/>
+      <c r="F91" s="75"/>
+      <c r="G91" s="75"/>
+      <c r="H91" s="75"/>
+      <c r="I91" s="75"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="75" t="s">
+        <v>353</v>
+      </c>
+      <c r="B92" s="75" t="s">
+        <v>354</v>
+      </c>
+      <c r="C92" s="75" t="s">
+        <v>355</v>
+      </c>
+      <c r="D92" s="75" t="s">
+        <v>356</v>
+      </c>
+      <c r="E92" s="75"/>
+      <c r="F92" s="75"/>
+      <c r="G92" s="75"/>
+      <c r="H92" s="75"/>
+      <c r="I92" s="75"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="75" t="s">
+        <v>357</v>
+      </c>
+      <c r="B93" s="75" t="s">
+        <v>358</v>
+      </c>
+      <c r="C93" s="75" t="s">
+        <v>359</v>
+      </c>
+      <c r="D93" s="75" t="s">
+        <v>360</v>
+      </c>
+      <c r="E93" s="75"/>
+      <c r="F93" s="75"/>
+      <c r="G93" s="75"/>
+      <c r="H93" s="75"/>
+      <c r="I93" s="75"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="75" t="s">
+        <v>361</v>
+      </c>
+      <c r="B94" s="75" t="s">
+        <v>362</v>
+      </c>
+      <c r="C94" s="75" t="s">
+        <v>363</v>
+      </c>
+      <c r="D94" s="75" t="s">
+        <v>364</v>
+      </c>
+      <c r="E94" s="75"/>
+      <c r="F94" s="75"/>
+      <c r="G94" s="75"/>
+      <c r="H94" s="75"/>
+      <c r="I94" s="75"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="75" t="s">
+        <v>365</v>
+      </c>
+      <c r="B95" s="75" t="s">
+        <v>366</v>
+      </c>
+      <c r="C95" s="75" t="s">
+        <v>367</v>
+      </c>
+      <c r="D95" s="75" t="s">
+        <v>368</v>
+      </c>
+      <c r="E95" s="75"/>
+      <c r="F95" s="75"/>
+      <c r="G95" s="75"/>
+      <c r="H95" s="75"/>
+      <c r="I95" s="75"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="75" t="s">
+        <v>369</v>
+      </c>
+      <c r="B96" s="75" t="s">
+        <v>370</v>
+      </c>
+      <c r="C96" s="75" t="s">
+        <v>371</v>
+      </c>
+      <c r="D96" s="75" t="s">
+        <v>372</v>
+      </c>
+      <c r="E96" s="75"/>
+      <c r="F96" s="75"/>
+      <c r="G96" s="75"/>
+      <c r="H96" s="75"/>
+      <c r="I96" s="75"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="75" t="s">
+        <v>373</v>
+      </c>
+      <c r="B97" s="75" t="s">
+        <v>374</v>
+      </c>
+      <c r="C97" s="75" t="s">
+        <v>375</v>
+      </c>
+      <c r="D97" s="75" t="s">
+        <v>376</v>
+      </c>
+      <c r="E97" s="75"/>
+      <c r="F97" s="75"/>
+      <c r="G97" s="75"/>
+      <c r="H97" s="75"/>
+      <c r="I97" s="75"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="75" t="s">
+        <v>377</v>
+      </c>
+      <c r="B98" s="75" t="s">
+        <v>378</v>
+      </c>
+      <c r="C98" s="75" t="s">
+        <v>379</v>
+      </c>
+      <c r="D98" s="75" t="s">
+        <v>380</v>
+      </c>
+      <c r="E98" s="75"/>
+      <c r="F98" s="75"/>
+      <c r="G98" s="75"/>
+      <c r="H98" s="75"/>
+      <c r="I98" s="75"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="75" t="s">
+        <v>381</v>
+      </c>
+      <c r="B99" s="75" t="s">
+        <v>382</v>
+      </c>
+      <c r="C99" s="75" t="s">
+        <v>383</v>
+      </c>
+      <c r="D99" s="75" t="s">
+        <v>384</v>
+      </c>
+      <c r="E99" s="75"/>
+      <c r="F99" s="75"/>
+      <c r="G99" s="75"/>
+      <c r="H99" s="75"/>
+      <c r="I99" s="75"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="75" t="s">
+        <v>385</v>
+      </c>
+      <c r="B100" s="75" t="s">
+        <v>386</v>
+      </c>
+      <c r="C100" s="75" t="s">
+        <v>387</v>
+      </c>
+      <c r="D100" s="75" t="s">
+        <v>388</v>
+      </c>
+      <c r="E100" s="75"/>
+      <c r="F100" s="75"/>
+      <c r="G100" s="75"/>
+      <c r="H100" s="75"/>
+      <c r="I100" s="75"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="75" t="s">
+        <v>389</v>
+      </c>
+      <c r="B101" s="75" t="s">
+        <v>390</v>
+      </c>
+      <c r="C101" s="75" t="s">
+        <v>391</v>
+      </c>
+      <c r="D101" s="75" t="s">
+        <v>392</v>
+      </c>
+      <c r="E101" s="75"/>
+      <c r="F101" s="75"/>
+      <c r="G101" s="75"/>
+      <c r="H101" s="75"/>
+      <c r="I101" s="75"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="75" t="s">
+        <v>393</v>
+      </c>
+      <c r="B102" s="75" t="s">
+        <v>394</v>
+      </c>
+      <c r="C102" s="75" t="s">
+        <v>395</v>
+      </c>
+      <c r="D102" s="75" t="s">
+        <v>396</v>
+      </c>
+      <c r="E102" s="75"/>
+      <c r="F102" s="75"/>
+      <c r="G102" s="75"/>
+      <c r="H102" s="75"/>
+      <c r="I102" s="75"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="75" t="s">
+        <v>397</v>
+      </c>
+      <c r="B103" s="75" t="s">
+        <v>398</v>
+      </c>
+      <c r="C103" s="75" t="s">
+        <v>399</v>
+      </c>
+      <c r="D103" s="75" t="s">
+        <v>400</v>
+      </c>
+      <c r="E103" s="75"/>
+      <c r="F103" s="75"/>
+      <c r="G103" s="75"/>
+      <c r="H103" s="75"/>
+      <c r="I103" s="75"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="75" t="s">
+        <v>401</v>
+      </c>
+      <c r="B104" s="75" t="s">
+        <v>402</v>
+      </c>
+      <c r="C104" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="D104" s="75" t="s">
+        <v>404</v>
+      </c>
+      <c r="E104" s="75"/>
+      <c r="F104" s="75"/>
+      <c r="G104" s="75"/>
+      <c r="H104" s="75"/>
+      <c r="I104" s="75"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="75" t="s">
+        <v>405</v>
+      </c>
+      <c r="B105" s="75" t="s">
+        <v>406</v>
+      </c>
+      <c r="C105" s="75" t="s">
+        <v>407</v>
+      </c>
+      <c r="D105" s="75" t="s">
+        <v>408</v>
+      </c>
+      <c r="E105" s="75"/>
+      <c r="F105" s="75"/>
+      <c r="G105" s="75"/>
+      <c r="H105" s="75"/>
+      <c r="I105" s="75"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="75" t="s">
+        <v>409</v>
+      </c>
+      <c r="B106" s="75" t="s">
+        <v>410</v>
+      </c>
+      <c r="C106" s="75" t="s">
+        <v>411</v>
+      </c>
+      <c r="D106" s="75" t="s">
+        <v>412</v>
+      </c>
+      <c r="E106" s="75"/>
+      <c r="F106" s="75"/>
+      <c r="G106" s="75"/>
+      <c r="H106" s="75"/>
+      <c r="I106" s="75"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="75" t="s">
+        <v>413</v>
+      </c>
+      <c r="B107" s="75" t="s">
+        <v>414</v>
+      </c>
+      <c r="C107" s="75" t="s">
+        <v>415</v>
+      </c>
+      <c r="D107" s="75" t="s">
+        <v>416</v>
+      </c>
+      <c r="E107" s="75"/>
+      <c r="F107" s="75"/>
+      <c r="G107" s="75"/>
+      <c r="H107" s="75"/>
+      <c r="I107" s="75"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="75" t="s">
+        <v>417</v>
+      </c>
+      <c r="B108" s="75" t="s">
+        <v>418</v>
+      </c>
+      <c r="C108" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="D108" s="75" t="s">
+        <v>420</v>
+      </c>
+      <c r="E108" s="75"/>
+      <c r="F108" s="75"/>
+      <c r="G108" s="75"/>
+      <c r="H108" s="75"/>
+      <c r="I108" s="75"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="75" t="s">
+        <v>421</v>
+      </c>
+      <c r="B109" s="75" t="s">
+        <v>422</v>
+      </c>
+      <c r="C109" s="75" t="s">
+        <v>423</v>
+      </c>
+      <c r="D109" s="75" t="s">
+        <v>424</v>
+      </c>
+      <c r="E109" s="75"/>
+      <c r="F109" s="75"/>
+      <c r="G109" s="75"/>
+      <c r="H109" s="75"/>
+      <c r="I109" s="75"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="75" t="s">
+        <v>425</v>
+      </c>
+      <c r="B110" s="75" t="s">
+        <v>426</v>
+      </c>
+      <c r="C110" s="75" t="s">
+        <v>427</v>
+      </c>
+      <c r="D110" s="75" t="s">
+        <v>428</v>
+      </c>
+      <c r="E110" s="75"/>
+      <c r="F110" s="75"/>
+      <c r="G110" s="75"/>
+      <c r="H110" s="75"/>
+      <c r="I110" s="75"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="75" t="s">
+        <v>429</v>
+      </c>
+      <c r="B111" s="75" t="s">
+        <v>430</v>
+      </c>
+      <c r="C111" s="75" t="s">
+        <v>431</v>
+      </c>
+      <c r="D111" s="75" t="s">
+        <v>432</v>
+      </c>
+      <c r="E111" s="75"/>
+      <c r="F111" s="75"/>
+      <c r="G111" s="75"/>
+      <c r="H111" s="75"/>
+      <c r="I111" s="75"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21" t="s">
+      <c r="B112" s="42"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="3"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="4"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="7"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="19"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20" t="s">
+      <c r="F114" s="20"/>
+      <c r="G114" s="20"/>
+      <c r="H114" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="22"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="41" t="s">
+      <c r="I114" s="22"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="43" t="s">
+      <c r="B115" s="42"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="3"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="4"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="7"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A117" s="8"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12" t="s">
+      <c r="E117" s="43"/>
+      <c r="F117" s="44"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="41" t="s">
+      <c r="I117" s="11"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="46"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="33"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="38"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="10" t="s">
+      <c r="B118" s="42"/>
+      <c r="C118" s="45"/>
+      <c r="D118" s="45"/>
+      <c r="E118" s="45"/>
+      <c r="F118" s="42"/>
+      <c r="G118" s="42"/>
+      <c r="H118" s="42"/>
+      <c r="I118" s="46"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A119" s="33"/>
+      <c r="B119" s="34"/>
+      <c r="C119" s="35"/>
+      <c r="D119" s="36"/>
+      <c r="E119" s="36"/>
+      <c r="F119" s="37"/>
+      <c r="G119" s="37"/>
+      <c r="H119" s="37"/>
+      <c r="I119" s="38"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="13"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="12" t="s">
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I30" s="16"/>
+      <c r="I120" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -1421,11 +4553,11 @@
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="E6:I9"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A119:I119"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="A118:I118"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/templateOut.xlsx
+++ b/src/main/resources/templateOut.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\code\excel-poi\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E4234A-0464-4F0C-B927-DF26AECF86A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB34FF00-A3DE-4BC6-BEA2-CB4A5E180D50}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{66375A15-073F-4B75-B3CA-72366F63B53F}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{66375A15-073F-4B75-B3CA-72366F63B53F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="336">
   <si>
     <t>西安市轨道交通工程施工质量验收技术资料统一用表</t>
   </si>
@@ -136,27 +136,28 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>${picture}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>高磊0</t>
   </si>
   <si>
     <t>工程名0</t>
   </si>
   <si>
-    <t>270</t>
-  </si>
-  <si>
     <t>陕西0</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>高磊1</t>
   </si>
   <si>
     <t>工程名1</t>
   </si>
   <si>
-    <t>271</t>
-  </si>
-  <si>
     <t>陕西1</t>
   </si>
   <si>
@@ -166,9 +167,6 @@
     <t>工程名2</t>
   </si>
   <si>
-    <t>272</t>
-  </si>
-  <si>
     <t>陕西2</t>
   </si>
   <si>
@@ -178,9 +176,6 @@
     <t>工程名3</t>
   </si>
   <si>
-    <t>273</t>
-  </si>
-  <si>
     <t>陕西3</t>
   </si>
   <si>
@@ -190,9 +185,6 @@
     <t>工程名4</t>
   </si>
   <si>
-    <t>274</t>
-  </si>
-  <si>
     <t>陕西4</t>
   </si>
   <si>
@@ -202,9 +194,6 @@
     <t>工程名5</t>
   </si>
   <si>
-    <t>275</t>
-  </si>
-  <si>
     <t>陕西5</t>
   </si>
   <si>
@@ -214,9 +203,6 @@
     <t>工程名6</t>
   </si>
   <si>
-    <t>276</t>
-  </si>
-  <si>
     <t>陕西6</t>
   </si>
   <si>
@@ -226,9 +212,6 @@
     <t>工程名7</t>
   </si>
   <si>
-    <t>277</t>
-  </si>
-  <si>
     <t>陕西7</t>
   </si>
   <si>
@@ -238,9 +221,6 @@
     <t>工程名8</t>
   </si>
   <si>
-    <t>278</t>
-  </si>
-  <si>
     <t>陕西8</t>
   </si>
   <si>
@@ -250,9 +230,6 @@
     <t>工程名9</t>
   </si>
   <si>
-    <t>279</t>
-  </si>
-  <si>
     <t>陕西9</t>
   </si>
   <si>
@@ -262,9 +239,6 @@
     <t>工程名10</t>
   </si>
   <si>
-    <t>2710</t>
-  </si>
-  <si>
     <t>陕西10</t>
   </si>
   <si>
@@ -274,9 +248,6 @@
     <t>工程名11</t>
   </si>
   <si>
-    <t>2711</t>
-  </si>
-  <si>
     <t>陕西11</t>
   </si>
   <si>
@@ -286,9 +257,6 @@
     <t>工程名12</t>
   </si>
   <si>
-    <t>2712</t>
-  </si>
-  <si>
     <t>陕西12</t>
   </si>
   <si>
@@ -298,9 +266,6 @@
     <t>工程名13</t>
   </si>
   <si>
-    <t>2713</t>
-  </si>
-  <si>
     <t>陕西13</t>
   </si>
   <si>
@@ -310,9 +275,6 @@
     <t>工程名14</t>
   </si>
   <si>
-    <t>2714</t>
-  </si>
-  <si>
     <t>陕西14</t>
   </si>
   <si>
@@ -322,9 +284,6 @@
     <t>工程名15</t>
   </si>
   <si>
-    <t>2715</t>
-  </si>
-  <si>
     <t>陕西15</t>
   </si>
   <si>
@@ -334,9 +293,6 @@
     <t>工程名16</t>
   </si>
   <si>
-    <t>2716</t>
-  </si>
-  <si>
     <t>陕西16</t>
   </si>
   <si>
@@ -346,9 +302,6 @@
     <t>工程名17</t>
   </si>
   <si>
-    <t>2717</t>
-  </si>
-  <si>
     <t>陕西17</t>
   </si>
   <si>
@@ -358,9 +311,6 @@
     <t>工程名18</t>
   </si>
   <si>
-    <t>2718</t>
-  </si>
-  <si>
     <t>陕西18</t>
   </si>
   <si>
@@ -370,9 +320,6 @@
     <t>工程名19</t>
   </si>
   <si>
-    <t>2719</t>
-  </si>
-  <si>
     <t>陕西19</t>
   </si>
   <si>
@@ -382,9 +329,6 @@
     <t>工程名20</t>
   </si>
   <si>
-    <t>2720</t>
-  </si>
-  <si>
     <t>陕西20</t>
   </si>
   <si>
@@ -394,9 +338,6 @@
     <t>工程名21</t>
   </si>
   <si>
-    <t>2721</t>
-  </si>
-  <si>
     <t>陕西21</t>
   </si>
   <si>
@@ -406,9 +347,6 @@
     <t>工程名22</t>
   </si>
   <si>
-    <t>2722</t>
-  </si>
-  <si>
     <t>陕西22</t>
   </si>
   <si>
@@ -418,9 +356,6 @@
     <t>工程名23</t>
   </si>
   <si>
-    <t>2723</t>
-  </si>
-  <si>
     <t>陕西23</t>
   </si>
   <si>
@@ -430,9 +365,6 @@
     <t>工程名24</t>
   </si>
   <si>
-    <t>2724</t>
-  </si>
-  <si>
     <t>陕西24</t>
   </si>
   <si>
@@ -442,9 +374,6 @@
     <t>工程名25</t>
   </si>
   <si>
-    <t>2725</t>
-  </si>
-  <si>
     <t>陕西25</t>
   </si>
   <si>
@@ -454,9 +383,6 @@
     <t>工程名26</t>
   </si>
   <si>
-    <t>2726</t>
-  </si>
-  <si>
     <t>陕西26</t>
   </si>
   <si>
@@ -466,9 +392,6 @@
     <t>工程名27</t>
   </si>
   <si>
-    <t>2727</t>
-  </si>
-  <si>
     <t>陕西27</t>
   </si>
   <si>
@@ -478,9 +401,6 @@
     <t>工程名28</t>
   </si>
   <si>
-    <t>2728</t>
-  </si>
-  <si>
     <t>陕西28</t>
   </si>
   <si>
@@ -490,9 +410,6 @@
     <t>工程名29</t>
   </si>
   <si>
-    <t>2729</t>
-  </si>
-  <si>
     <t>陕西29</t>
   </si>
   <si>
@@ -502,9 +419,6 @@
     <t>工程名30</t>
   </si>
   <si>
-    <t>2730</t>
-  </si>
-  <si>
     <t>陕西30</t>
   </si>
   <si>
@@ -514,9 +428,6 @@
     <t>工程名31</t>
   </si>
   <si>
-    <t>2731</t>
-  </si>
-  <si>
     <t>陕西31</t>
   </si>
   <si>
@@ -526,9 +437,6 @@
     <t>工程名32</t>
   </si>
   <si>
-    <t>2732</t>
-  </si>
-  <si>
     <t>陕西32</t>
   </si>
   <si>
@@ -538,9 +446,6 @@
     <t>工程名33</t>
   </si>
   <si>
-    <t>2733</t>
-  </si>
-  <si>
     <t>陕西33</t>
   </si>
   <si>
@@ -550,9 +455,6 @@
     <t>工程名34</t>
   </si>
   <si>
-    <t>2734</t>
-  </si>
-  <si>
     <t>陕西34</t>
   </si>
   <si>
@@ -562,9 +464,6 @@
     <t>工程名35</t>
   </si>
   <si>
-    <t>2735</t>
-  </si>
-  <si>
     <t>陕西35</t>
   </si>
   <si>
@@ -574,9 +473,6 @@
     <t>工程名36</t>
   </si>
   <si>
-    <t>2736</t>
-  </si>
-  <si>
     <t>陕西36</t>
   </si>
   <si>
@@ -586,9 +482,6 @@
     <t>工程名37</t>
   </si>
   <si>
-    <t>2737</t>
-  </si>
-  <si>
     <t>陕西37</t>
   </si>
   <si>
@@ -598,9 +491,6 @@
     <t>工程名38</t>
   </si>
   <si>
-    <t>2738</t>
-  </si>
-  <si>
     <t>陕西38</t>
   </si>
   <si>
@@ -610,9 +500,6 @@
     <t>工程名39</t>
   </si>
   <si>
-    <t>2739</t>
-  </si>
-  <si>
     <t>陕西39</t>
   </si>
   <si>
@@ -622,9 +509,6 @@
     <t>工程名40</t>
   </si>
   <si>
-    <t>2740</t>
-  </si>
-  <si>
     <t>陕西40</t>
   </si>
   <si>
@@ -634,9 +518,6 @@
     <t>工程名41</t>
   </si>
   <si>
-    <t>2741</t>
-  </si>
-  <si>
     <t>陕西41</t>
   </si>
   <si>
@@ -646,9 +527,6 @@
     <t>工程名42</t>
   </si>
   <si>
-    <t>2742</t>
-  </si>
-  <si>
     <t>陕西42</t>
   </si>
   <si>
@@ -658,9 +536,6 @@
     <t>工程名43</t>
   </si>
   <si>
-    <t>2743</t>
-  </si>
-  <si>
     <t>陕西43</t>
   </si>
   <si>
@@ -670,9 +545,6 @@
     <t>工程名44</t>
   </si>
   <si>
-    <t>2744</t>
-  </si>
-  <si>
     <t>陕西44</t>
   </si>
   <si>
@@ -682,9 +554,6 @@
     <t>工程名45</t>
   </si>
   <si>
-    <t>2745</t>
-  </si>
-  <si>
     <t>陕西45</t>
   </si>
   <si>
@@ -694,9 +563,6 @@
     <t>工程名46</t>
   </si>
   <si>
-    <t>2746</t>
-  </si>
-  <si>
     <t>陕西46</t>
   </si>
   <si>
@@ -706,9 +572,6 @@
     <t>工程名47</t>
   </si>
   <si>
-    <t>2747</t>
-  </si>
-  <si>
     <t>陕西47</t>
   </si>
   <si>
@@ -718,9 +581,6 @@
     <t>工程名48</t>
   </si>
   <si>
-    <t>2748</t>
-  </si>
-  <si>
     <t>陕西48</t>
   </si>
   <si>
@@ -730,9 +590,6 @@
     <t>工程名49</t>
   </si>
   <si>
-    <t>2749</t>
-  </si>
-  <si>
     <t>陕西49</t>
   </si>
   <si>
@@ -742,9 +599,6 @@
     <t>工程名50</t>
   </si>
   <si>
-    <t>2750</t>
-  </si>
-  <si>
     <t>陕西50</t>
   </si>
   <si>
@@ -754,9 +608,6 @@
     <t>工程名51</t>
   </si>
   <si>
-    <t>2751</t>
-  </si>
-  <si>
     <t>陕西51</t>
   </si>
   <si>
@@ -766,9 +617,6 @@
     <t>工程名52</t>
   </si>
   <si>
-    <t>2752</t>
-  </si>
-  <si>
     <t>陕西52</t>
   </si>
   <si>
@@ -778,9 +626,6 @@
     <t>工程名53</t>
   </si>
   <si>
-    <t>2753</t>
-  </si>
-  <si>
     <t>陕西53</t>
   </si>
   <si>
@@ -790,9 +635,6 @@
     <t>工程名54</t>
   </si>
   <si>
-    <t>2754</t>
-  </si>
-  <si>
     <t>陕西54</t>
   </si>
   <si>
@@ -802,9 +644,6 @@
     <t>工程名55</t>
   </si>
   <si>
-    <t>2755</t>
-  </si>
-  <si>
     <t>陕西55</t>
   </si>
   <si>
@@ -814,9 +653,6 @@
     <t>工程名56</t>
   </si>
   <si>
-    <t>2756</t>
-  </si>
-  <si>
     <t>陕西56</t>
   </si>
   <si>
@@ -826,9 +662,6 @@
     <t>工程名57</t>
   </si>
   <si>
-    <t>2757</t>
-  </si>
-  <si>
     <t>陕西57</t>
   </si>
   <si>
@@ -838,9 +671,6 @@
     <t>工程名58</t>
   </si>
   <si>
-    <t>2758</t>
-  </si>
-  <si>
     <t>陕西58</t>
   </si>
   <si>
@@ -850,9 +680,6 @@
     <t>工程名59</t>
   </si>
   <si>
-    <t>2759</t>
-  </si>
-  <si>
     <t>陕西59</t>
   </si>
   <si>
@@ -862,9 +689,6 @@
     <t>工程名60</t>
   </si>
   <si>
-    <t>2760</t>
-  </si>
-  <si>
     <t>陕西60</t>
   </si>
   <si>
@@ -874,9 +698,6 @@
     <t>工程名61</t>
   </si>
   <si>
-    <t>2761</t>
-  </si>
-  <si>
     <t>陕西61</t>
   </si>
   <si>
@@ -886,9 +707,6 @@
     <t>工程名62</t>
   </si>
   <si>
-    <t>2762</t>
-  </si>
-  <si>
     <t>陕西62</t>
   </si>
   <si>
@@ -898,9 +716,6 @@
     <t>工程名63</t>
   </si>
   <si>
-    <t>2763</t>
-  </si>
-  <si>
     <t>陕西63</t>
   </si>
   <si>
@@ -910,9 +725,6 @@
     <t>工程名64</t>
   </si>
   <si>
-    <t>2764</t>
-  </si>
-  <si>
     <t>陕西64</t>
   </si>
   <si>
@@ -922,9 +734,6 @@
     <t>工程名65</t>
   </si>
   <si>
-    <t>2765</t>
-  </si>
-  <si>
     <t>陕西65</t>
   </si>
   <si>
@@ -934,9 +743,6 @@
     <t>工程名66</t>
   </si>
   <si>
-    <t>2766</t>
-  </si>
-  <si>
     <t>陕西66</t>
   </si>
   <si>
@@ -946,9 +752,6 @@
     <t>工程名67</t>
   </si>
   <si>
-    <t>2767</t>
-  </si>
-  <si>
     <t>陕西67</t>
   </si>
   <si>
@@ -958,9 +761,6 @@
     <t>工程名68</t>
   </si>
   <si>
-    <t>2768</t>
-  </si>
-  <si>
     <t>陕西68</t>
   </si>
   <si>
@@ -970,9 +770,6 @@
     <t>工程名69</t>
   </si>
   <si>
-    <t>2769</t>
-  </si>
-  <si>
     <t>陕西69</t>
   </si>
   <si>
@@ -982,9 +779,6 @@
     <t>工程名70</t>
   </si>
   <si>
-    <t>2770</t>
-  </si>
-  <si>
     <t>陕西70</t>
   </si>
   <si>
@@ -994,9 +788,6 @@
     <t>工程名71</t>
   </si>
   <si>
-    <t>2771</t>
-  </si>
-  <si>
     <t>陕西71</t>
   </si>
   <si>
@@ -1006,9 +797,6 @@
     <t>工程名72</t>
   </si>
   <si>
-    <t>2772</t>
-  </si>
-  <si>
     <t>陕西72</t>
   </si>
   <si>
@@ -1018,9 +806,6 @@
     <t>工程名73</t>
   </si>
   <si>
-    <t>2773</t>
-  </si>
-  <si>
     <t>陕西73</t>
   </si>
   <si>
@@ -1030,9 +815,6 @@
     <t>工程名74</t>
   </si>
   <si>
-    <t>2774</t>
-  </si>
-  <si>
     <t>陕西74</t>
   </si>
   <si>
@@ -1042,9 +824,6 @@
     <t>工程名75</t>
   </si>
   <si>
-    <t>2775</t>
-  </si>
-  <si>
     <t>陕西75</t>
   </si>
   <si>
@@ -1054,9 +833,6 @@
     <t>工程名76</t>
   </si>
   <si>
-    <t>2776</t>
-  </si>
-  <si>
     <t>陕西76</t>
   </si>
   <si>
@@ -1066,9 +842,6 @@
     <t>工程名77</t>
   </si>
   <si>
-    <t>2777</t>
-  </si>
-  <si>
     <t>陕西77</t>
   </si>
   <si>
@@ -1078,9 +851,6 @@
     <t>工程名78</t>
   </si>
   <si>
-    <t>2778</t>
-  </si>
-  <si>
     <t>陕西78</t>
   </si>
   <si>
@@ -1090,9 +860,6 @@
     <t>工程名79</t>
   </si>
   <si>
-    <t>2779</t>
-  </si>
-  <si>
     <t>陕西79</t>
   </si>
   <si>
@@ -1102,9 +869,6 @@
     <t>工程名80</t>
   </si>
   <si>
-    <t>2780</t>
-  </si>
-  <si>
     <t>陕西80</t>
   </si>
   <si>
@@ -1114,9 +878,6 @@
     <t>工程名81</t>
   </si>
   <si>
-    <t>2781</t>
-  </si>
-  <si>
     <t>陕西81</t>
   </si>
   <si>
@@ -1126,9 +887,6 @@
     <t>工程名82</t>
   </si>
   <si>
-    <t>2782</t>
-  </si>
-  <si>
     <t>陕西82</t>
   </si>
   <si>
@@ -1138,9 +896,6 @@
     <t>工程名83</t>
   </si>
   <si>
-    <t>2783</t>
-  </si>
-  <si>
     <t>陕西83</t>
   </si>
   <si>
@@ -1150,9 +905,6 @@
     <t>工程名84</t>
   </si>
   <si>
-    <t>2784</t>
-  </si>
-  <si>
     <t>陕西84</t>
   </si>
   <si>
@@ -1162,9 +914,6 @@
     <t>工程名85</t>
   </si>
   <si>
-    <t>2785</t>
-  </si>
-  <si>
     <t>陕西85</t>
   </si>
   <si>
@@ -1174,9 +923,6 @@
     <t>工程名86</t>
   </si>
   <si>
-    <t>2786</t>
-  </si>
-  <si>
     <t>陕西86</t>
   </si>
   <si>
@@ -1186,9 +932,6 @@
     <t>工程名87</t>
   </si>
   <si>
-    <t>2787</t>
-  </si>
-  <si>
     <t>陕西87</t>
   </si>
   <si>
@@ -1198,9 +941,6 @@
     <t>工程名88</t>
   </si>
   <si>
-    <t>2788</t>
-  </si>
-  <si>
     <t>陕西88</t>
   </si>
   <si>
@@ -1210,9 +950,6 @@
     <t>工程名89</t>
   </si>
   <si>
-    <t>2789</t>
-  </si>
-  <si>
     <t>陕西89</t>
   </si>
   <si>
@@ -1222,9 +959,6 @@
     <t>工程名90</t>
   </si>
   <si>
-    <t>2790</t>
-  </si>
-  <si>
     <t>陕西90</t>
   </si>
   <si>
@@ -1234,9 +968,6 @@
     <t>工程名91</t>
   </si>
   <si>
-    <t>2791</t>
-  </si>
-  <si>
     <t>陕西91</t>
   </si>
   <si>
@@ -1246,9 +977,6 @@
     <t>工程名92</t>
   </si>
   <si>
-    <t>2792</t>
-  </si>
-  <si>
     <t>陕西92</t>
   </si>
   <si>
@@ -1258,9 +986,6 @@
     <t>工程名93</t>
   </si>
   <si>
-    <t>2793</t>
-  </si>
-  <si>
     <t>陕西93</t>
   </si>
   <si>
@@ -1270,9 +995,6 @@
     <t>工程名94</t>
   </si>
   <si>
-    <t>2794</t>
-  </si>
-  <si>
     <t>陕西94</t>
   </si>
   <si>
@@ -1282,9 +1004,6 @@
     <t>工程名95</t>
   </si>
   <si>
-    <t>2795</t>
-  </si>
-  <si>
     <t>陕西95</t>
   </si>
   <si>
@@ -1294,9 +1013,6 @@
     <t>工程名96</t>
   </si>
   <si>
-    <t>2796</t>
-  </si>
-  <si>
     <t>陕西96</t>
   </si>
   <si>
@@ -1306,9 +1022,6 @@
     <t>工程名97</t>
   </si>
   <si>
-    <t>2797</t>
-  </si>
-  <si>
     <t>陕西97</t>
   </si>
   <si>
@@ -1318,9 +1031,6 @@
     <t>工程名98</t>
   </si>
   <si>
-    <t>2798</t>
-  </si>
-  <si>
     <t>陕西98</t>
   </si>
   <si>
@@ -1330,10 +1040,10 @@
     <t>工程名99</t>
   </si>
   <si>
-    <t>2799</t>
-  </si>
-  <si>
     <t>陕西99</t>
+  </si>
+  <si>
+    <t>工程名</t>
   </si>
 </sst>
 </file>
@@ -1726,6 +1436,69 @@
     <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1743,12 +1516,6 @@
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1793,63 +1560,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
@@ -2004,13 +1714,13 @@
   </xdr:wsDr>
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
-      <spr:col>8</spr:col>
+      <spr:col>4</spr:col>
       <spr:colOff>1</spr:colOff>
       <spr:row>11</spr:row>
       <spr:rowOff>1</spr:rowOff>
     </spr:from>
     <spr:to>
-      <spr:col>9</spr:col>
+      <spr:col>5</spr:col>
       <spr:colOff>1</spr:colOff>
       <spr:row>12</spr:row>
       <spr:rowOff>1</spr:rowOff>
@@ -2024,6 +1734,3768 @@
       </spr:nvPicPr>
       <spr:blipFill>
         <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>12</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>13</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>13</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>14</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>14</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>15</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>15</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>16</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>16</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>17</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>17</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>18</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>18</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>19</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>19</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>20</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>20</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>21</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>21</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>22</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>22</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>23</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>23</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>24</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>24</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>25</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>25</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>26</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>26</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>27</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>27</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>28</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>28</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>29</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>29</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>30</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>30</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>31</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>31</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>32</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>32</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>33</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>33</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>34</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>34</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>35</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>35</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>36</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>36</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>37</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>37</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>38</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>38</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>39</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>39</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>40</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>40</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>41</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>41</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>42</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>42</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>43</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>43</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>44</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>44</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>45</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>45</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>46</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>46</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>47</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>47</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>48</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>48</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>49</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>49</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>50</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>50</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>51</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>51</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>52</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>52</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>53</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>53</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>54</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>54</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>55</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>55</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>56</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>56</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>57</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>57</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>58</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>58</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>59</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>59</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>60</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>60</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>61</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>61</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>62</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>62</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>63</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId52"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>63</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>64</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>64</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>65</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId54"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>65</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>66</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId55"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>66</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>67</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId56"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>67</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>68</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>68</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>69</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId58"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>69</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>70</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId59"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>70</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>71</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId60"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>71</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>72</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId61"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>72</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>73</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId62"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>73</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>74</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId63"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>74</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>75</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId64"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>75</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>76</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId65"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>76</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>77</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId66"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>77</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>78</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId67"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>78</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>79</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId68"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>79</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>80</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId69"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>80</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>81</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId70"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>81</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>82</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId71"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>82</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>83</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId72"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>83</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>84</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId73"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>84</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>85</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId74"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>85</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>86</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId75"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>86</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>87</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId76"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>87</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>88</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId77"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>88</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>89</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId78"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>89</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>90</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId79"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>90</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>91</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId80"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>91</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>92</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId81"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>92</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>93</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId82"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>93</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>94</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId83"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>94</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>95</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId84"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>95</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>96</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId85"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>96</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>97</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId86"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>97</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>98</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId87"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>98</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>99</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId88"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>99</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>100</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId89"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>100</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>101</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId90"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>101</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>102</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId91"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>102</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>103</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId92"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>103</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>104</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId93"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>104</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>105</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId94"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>105</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>106</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId95"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>106</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>107</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId96"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>107</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>108</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId97"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>108</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>109</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId98"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>109</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>110</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId99"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>110</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>1</spr:colOff>
+      <spr:row>111</spr:row>
+      <spr:rowOff>1</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId100"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2343,137 +5815,137 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="A12:I12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="68"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72" t="s">
+      <c r="A3" s="40" t="s">
+        <v>335</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="74"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="74"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45"/>
     </row>
     <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="60"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="50"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="47" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="52" t="s">
+        <v>335</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="49"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="68"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="71"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="52"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="71"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="74"/>
     </row>
     <row r="10" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="39"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="23"/>
       <c r="D10" s="24" t="s">
         <v>9</v>
@@ -2518,38 +5990,42 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="29" t="s">
+      <c r="A12" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="B12" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="C12" s="75" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="D12" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="29"/>
+      <c r="E12" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
     </row>
     <row r="13">
       <c r="A13" s="75" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="75" t="s">
         <v>39</v>
+      </c>
+      <c r="C13" s="75" t="n">
+        <v>28.0</v>
       </c>
       <c r="D13" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="75"/>
+      <c r="E13" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F13" s="75"/>
       <c r="G13" s="75"/>
       <c r="H13" s="75"/>
@@ -2562,13 +6038,15 @@
       <c r="B14" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="75" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="D14" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="75" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="75"/>
+      <c r="E14" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F14" s="75"/>
       <c r="G14" s="75"/>
       <c r="H14" s="75"/>
@@ -2576,18 +6054,20 @@
     </row>
     <row r="15">
       <c r="A15" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="C15" s="75" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D15" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="75"/>
+      <c r="E15" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F15" s="75"/>
       <c r="G15" s="75"/>
       <c r="H15" s="75"/>
@@ -2595,18 +6075,20 @@
     </row>
     <row r="16">
       <c r="A16" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="75" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="D16" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="75" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="75"/>
+      <c r="E16" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F16" s="75"/>
       <c r="G16" s="75"/>
       <c r="H16" s="75"/>
@@ -2614,18 +6096,20 @@
     </row>
     <row r="17">
       <c r="A17" s="75" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B17" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="75" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="C17" s="75" t="n">
+        <v>32.0</v>
       </c>
       <c r="D17" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="75"/>
+        <v>52</v>
+      </c>
+      <c r="E17" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F17" s="75"/>
       <c r="G17" s="75"/>
       <c r="H17" s="75"/>
@@ -2633,18 +6117,20 @@
     </row>
     <row r="18">
       <c r="A18" s="75" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B18" s="75" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="75" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="C18" s="75" t="n">
+        <v>33.0</v>
       </c>
       <c r="D18" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="75"/>
+        <v>55</v>
+      </c>
+      <c r="E18" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F18" s="75"/>
       <c r="G18" s="75"/>
       <c r="H18" s="75"/>
@@ -2652,18 +6138,20 @@
     </row>
     <row r="19">
       <c r="A19" s="75" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B19" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="75" t="s">
-        <v>63</v>
+        <v>57</v>
+      </c>
+      <c r="C19" s="75" t="n">
+        <v>34.0</v>
       </c>
       <c r="D19" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="75"/>
+        <v>58</v>
+      </c>
+      <c r="E19" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F19" s="75"/>
       <c r="G19" s="75"/>
       <c r="H19" s="75"/>
@@ -2671,18 +6159,20 @@
     </row>
     <row r="20">
       <c r="A20" s="75" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B20" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="75" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="C20" s="75" t="n">
+        <v>35.0</v>
       </c>
       <c r="D20" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="75"/>
+        <v>61</v>
+      </c>
+      <c r="E20" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F20" s="75"/>
       <c r="G20" s="75"/>
       <c r="H20" s="75"/>
@@ -2690,18 +6180,20 @@
     </row>
     <row r="21">
       <c r="A21" s="75" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B21" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="75" t="s">
-        <v>71</v>
+        <v>63</v>
+      </c>
+      <c r="C21" s="75" t="n">
+        <v>36.0</v>
       </c>
       <c r="D21" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="75"/>
+        <v>64</v>
+      </c>
+      <c r="E21" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F21" s="75"/>
       <c r="G21" s="75"/>
       <c r="H21" s="75"/>
@@ -2709,18 +6201,20 @@
     </row>
     <row r="22">
       <c r="A22" s="75" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B22" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="75" t="s">
-        <v>75</v>
+        <v>66</v>
+      </c>
+      <c r="C22" s="75" t="n">
+        <v>37.0</v>
       </c>
       <c r="D22" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="75"/>
+        <v>67</v>
+      </c>
+      <c r="E22" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F22" s="75"/>
       <c r="G22" s="75"/>
       <c r="H22" s="75"/>
@@ -2728,18 +6222,20 @@
     </row>
     <row r="23">
       <c r="A23" s="75" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B23" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="75" t="s">
-        <v>79</v>
+        <v>69</v>
+      </c>
+      <c r="C23" s="75" t="n">
+        <v>38.0</v>
       </c>
       <c r="D23" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="75"/>
+        <v>70</v>
+      </c>
+      <c r="E23" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F23" s="75"/>
       <c r="G23" s="75"/>
       <c r="H23" s="75"/>
@@ -2747,18 +6243,20 @@
     </row>
     <row r="24">
       <c r="A24" s="75" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B24" s="75" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="75" t="s">
-        <v>83</v>
+        <v>72</v>
+      </c>
+      <c r="C24" s="75" t="n">
+        <v>39.0</v>
       </c>
       <c r="D24" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="75"/>
+        <v>73</v>
+      </c>
+      <c r="E24" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F24" s="75"/>
       <c r="G24" s="75"/>
       <c r="H24" s="75"/>
@@ -2766,18 +6264,20 @@
     </row>
     <row r="25">
       <c r="A25" s="75" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B25" s="75" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="75" t="s">
-        <v>87</v>
+        <v>75</v>
+      </c>
+      <c r="C25" s="75" t="n">
+        <v>40.0</v>
       </c>
       <c r="D25" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="75"/>
+        <v>76</v>
+      </c>
+      <c r="E25" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F25" s="75"/>
       <c r="G25" s="75"/>
       <c r="H25" s="75"/>
@@ -2785,18 +6285,20 @@
     </row>
     <row r="26">
       <c r="A26" s="75" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B26" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="75" t="s">
-        <v>91</v>
+        <v>78</v>
+      </c>
+      <c r="C26" s="75" t="n">
+        <v>41.0</v>
       </c>
       <c r="D26" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="75"/>
+        <v>79</v>
+      </c>
+      <c r="E26" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F26" s="75"/>
       <c r="G26" s="75"/>
       <c r="H26" s="75"/>
@@ -2804,18 +6306,20 @@
     </row>
     <row r="27">
       <c r="A27" s="75" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B27" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="75" t="s">
-        <v>95</v>
+        <v>81</v>
+      </c>
+      <c r="C27" s="75" t="n">
+        <v>42.0</v>
       </c>
       <c r="D27" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="75"/>
+        <v>82</v>
+      </c>
+      <c r="E27" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F27" s="75"/>
       <c r="G27" s="75"/>
       <c r="H27" s="75"/>
@@ -2823,18 +6327,20 @@
     </row>
     <row r="28">
       <c r="A28" s="75" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B28" s="75" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="75" t="s">
-        <v>99</v>
+        <v>84</v>
+      </c>
+      <c r="C28" s="75" t="n">
+        <v>43.0</v>
       </c>
       <c r="D28" s="75" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="75"/>
+        <v>85</v>
+      </c>
+      <c r="E28" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F28" s="75"/>
       <c r="G28" s="75"/>
       <c r="H28" s="75"/>
@@ -2842,18 +6348,20 @@
     </row>
     <row r="29">
       <c r="A29" s="75" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B29" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="75" t="s">
-        <v>103</v>
+        <v>87</v>
+      </c>
+      <c r="C29" s="75" t="n">
+        <v>44.0</v>
       </c>
       <c r="D29" s="75" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" s="75"/>
+        <v>88</v>
+      </c>
+      <c r="E29" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F29" s="75"/>
       <c r="G29" s="75"/>
       <c r="H29" s="75"/>
@@ -2861,18 +6369,20 @@
     </row>
     <row r="30">
       <c r="A30" s="75" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B30" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="75" t="s">
-        <v>107</v>
+        <v>90</v>
+      </c>
+      <c r="C30" s="75" t="n">
+        <v>45.0</v>
       </c>
       <c r="D30" s="75" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="75"/>
+        <v>91</v>
+      </c>
+      <c r="E30" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F30" s="75"/>
       <c r="G30" s="75"/>
       <c r="H30" s="75"/>
@@ -2880,18 +6390,20 @@
     </row>
     <row r="31">
       <c r="A31" s="75" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B31" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="75" t="s">
-        <v>111</v>
+        <v>93</v>
+      </c>
+      <c r="C31" s="75" t="n">
+        <v>46.0</v>
       </c>
       <c r="D31" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="E31" s="75"/>
+        <v>94</v>
+      </c>
+      <c r="E31" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F31" s="75"/>
       <c r="G31" s="75"/>
       <c r="H31" s="75"/>
@@ -2899,18 +6411,20 @@
     </row>
     <row r="32">
       <c r="A32" s="75" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="B32" s="75" t="s">
-        <v>114</v>
-      </c>
-      <c r="C32" s="75" t="s">
-        <v>115</v>
+        <v>96</v>
+      </c>
+      <c r="C32" s="75" t="n">
+        <v>47.0</v>
       </c>
       <c r="D32" s="75" t="s">
-        <v>116</v>
-      </c>
-      <c r="E32" s="75"/>
+        <v>97</v>
+      </c>
+      <c r="E32" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F32" s="75"/>
       <c r="G32" s="75"/>
       <c r="H32" s="75"/>
@@ -2918,18 +6432,20 @@
     </row>
     <row r="33">
       <c r="A33" s="75" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B33" s="75" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" s="75" t="s">
-        <v>119</v>
+        <v>99</v>
+      </c>
+      <c r="C33" s="75" t="n">
+        <v>48.0</v>
       </c>
       <c r="D33" s="75" t="s">
-        <v>120</v>
-      </c>
-      <c r="E33" s="75"/>
+        <v>100</v>
+      </c>
+      <c r="E33" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F33" s="75"/>
       <c r="G33" s="75"/>
       <c r="H33" s="75"/>
@@ -2937,18 +6453,20 @@
     </row>
     <row r="34">
       <c r="A34" s="75" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B34" s="75" t="s">
-        <v>122</v>
-      </c>
-      <c r="C34" s="75" t="s">
-        <v>123</v>
+        <v>102</v>
+      </c>
+      <c r="C34" s="75" t="n">
+        <v>49.0</v>
       </c>
       <c r="D34" s="75" t="s">
-        <v>124</v>
-      </c>
-      <c r="E34" s="75"/>
+        <v>103</v>
+      </c>
+      <c r="E34" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F34" s="75"/>
       <c r="G34" s="75"/>
       <c r="H34" s="75"/>
@@ -2956,18 +6474,20 @@
     </row>
     <row r="35">
       <c r="A35" s="75" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B35" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35" s="75" t="s">
-        <v>127</v>
+        <v>105</v>
+      </c>
+      <c r="C35" s="75" t="n">
+        <v>50.0</v>
       </c>
       <c r="D35" s="75" t="s">
-        <v>128</v>
-      </c>
-      <c r="E35" s="75"/>
+        <v>106</v>
+      </c>
+      <c r="E35" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F35" s="75"/>
       <c r="G35" s="75"/>
       <c r="H35" s="75"/>
@@ -2975,18 +6495,20 @@
     </row>
     <row r="36">
       <c r="A36" s="75" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B36" s="75" t="s">
-        <v>130</v>
-      </c>
-      <c r="C36" s="75" t="s">
-        <v>131</v>
+        <v>108</v>
+      </c>
+      <c r="C36" s="75" t="n">
+        <v>51.0</v>
       </c>
       <c r="D36" s="75" t="s">
-        <v>132</v>
-      </c>
-      <c r="E36" s="75"/>
+        <v>109</v>
+      </c>
+      <c r="E36" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F36" s="75"/>
       <c r="G36" s="75"/>
       <c r="H36" s="75"/>
@@ -2994,18 +6516,20 @@
     </row>
     <row r="37">
       <c r="A37" s="75" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B37" s="75" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37" s="75" t="s">
-        <v>135</v>
+        <v>111</v>
+      </c>
+      <c r="C37" s="75" t="n">
+        <v>52.0</v>
       </c>
       <c r="D37" s="75" t="s">
-        <v>136</v>
-      </c>
-      <c r="E37" s="75"/>
+        <v>112</v>
+      </c>
+      <c r="E37" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F37" s="75"/>
       <c r="G37" s="75"/>
       <c r="H37" s="75"/>
@@ -3013,18 +6537,20 @@
     </row>
     <row r="38">
       <c r="A38" s="75" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="B38" s="75" t="s">
-        <v>138</v>
-      </c>
-      <c r="C38" s="75" t="s">
-        <v>139</v>
+        <v>114</v>
+      </c>
+      <c r="C38" s="75" t="n">
+        <v>53.0</v>
       </c>
       <c r="D38" s="75" t="s">
-        <v>140</v>
-      </c>
-      <c r="E38" s="75"/>
+        <v>115</v>
+      </c>
+      <c r="E38" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F38" s="75"/>
       <c r="G38" s="75"/>
       <c r="H38" s="75"/>
@@ -3032,18 +6558,20 @@
     </row>
     <row r="39">
       <c r="A39" s="75" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="B39" s="75" t="s">
-        <v>142</v>
-      </c>
-      <c r="C39" s="75" t="s">
-        <v>143</v>
+        <v>117</v>
+      </c>
+      <c r="C39" s="75" t="n">
+        <v>54.0</v>
       </c>
       <c r="D39" s="75" t="s">
-        <v>144</v>
-      </c>
-      <c r="E39" s="75"/>
+        <v>118</v>
+      </c>
+      <c r="E39" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F39" s="75"/>
       <c r="G39" s="75"/>
       <c r="H39" s="75"/>
@@ -3051,18 +6579,20 @@
     </row>
     <row r="40">
       <c r="A40" s="75" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="B40" s="75" t="s">
-        <v>146</v>
-      </c>
-      <c r="C40" s="75" t="s">
-        <v>147</v>
+        <v>120</v>
+      </c>
+      <c r="C40" s="75" t="n">
+        <v>55.0</v>
       </c>
       <c r="D40" s="75" t="s">
-        <v>148</v>
-      </c>
-      <c r="E40" s="75"/>
+        <v>121</v>
+      </c>
+      <c r="E40" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F40" s="75"/>
       <c r="G40" s="75"/>
       <c r="H40" s="75"/>
@@ -3070,18 +6600,20 @@
     </row>
     <row r="41">
       <c r="A41" s="75" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="B41" s="75" t="s">
-        <v>150</v>
-      </c>
-      <c r="C41" s="75" t="s">
-        <v>151</v>
+        <v>123</v>
+      </c>
+      <c r="C41" s="75" t="n">
+        <v>56.0</v>
       </c>
       <c r="D41" s="75" t="s">
-        <v>152</v>
-      </c>
-      <c r="E41" s="75"/>
+        <v>124</v>
+      </c>
+      <c r="E41" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F41" s="75"/>
       <c r="G41" s="75"/>
       <c r="H41" s="75"/>
@@ -3089,18 +6621,20 @@
     </row>
     <row r="42">
       <c r="A42" s="75" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="B42" s="75" t="s">
-        <v>154</v>
-      </c>
-      <c r="C42" s="75" t="s">
-        <v>155</v>
+        <v>126</v>
+      </c>
+      <c r="C42" s="75" t="n">
+        <v>57.0</v>
       </c>
       <c r="D42" s="75" t="s">
-        <v>156</v>
-      </c>
-      <c r="E42" s="75"/>
+        <v>127</v>
+      </c>
+      <c r="E42" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F42" s="75"/>
       <c r="G42" s="75"/>
       <c r="H42" s="75"/>
@@ -3108,18 +6642,20 @@
     </row>
     <row r="43">
       <c r="A43" s="75" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B43" s="75" t="s">
-        <v>158</v>
-      </c>
-      <c r="C43" s="75" t="s">
-        <v>159</v>
+        <v>129</v>
+      </c>
+      <c r="C43" s="75" t="n">
+        <v>58.0</v>
       </c>
       <c r="D43" s="75" t="s">
-        <v>160</v>
-      </c>
-      <c r="E43" s="75"/>
+        <v>130</v>
+      </c>
+      <c r="E43" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F43" s="75"/>
       <c r="G43" s="75"/>
       <c r="H43" s="75"/>
@@ -3127,18 +6663,20 @@
     </row>
     <row r="44">
       <c r="A44" s="75" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="B44" s="75" t="s">
-        <v>162</v>
-      </c>
-      <c r="C44" s="75" t="s">
-        <v>163</v>
+        <v>132</v>
+      </c>
+      <c r="C44" s="75" t="n">
+        <v>59.0</v>
       </c>
       <c r="D44" s="75" t="s">
-        <v>164</v>
-      </c>
-      <c r="E44" s="75"/>
+        <v>133</v>
+      </c>
+      <c r="E44" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F44" s="75"/>
       <c r="G44" s="75"/>
       <c r="H44" s="75"/>
@@ -3146,18 +6684,20 @@
     </row>
     <row r="45">
       <c r="A45" s="75" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="B45" s="75" t="s">
-        <v>166</v>
-      </c>
-      <c r="C45" s="75" t="s">
-        <v>167</v>
+        <v>135</v>
+      </c>
+      <c r="C45" s="75" t="n">
+        <v>60.0</v>
       </c>
       <c r="D45" s="75" t="s">
-        <v>168</v>
-      </c>
-      <c r="E45" s="75"/>
+        <v>136</v>
+      </c>
+      <c r="E45" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F45" s="75"/>
       <c r="G45" s="75"/>
       <c r="H45" s="75"/>
@@ -3165,18 +6705,20 @@
     </row>
     <row r="46">
       <c r="A46" s="75" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="B46" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="C46" s="75" t="s">
-        <v>171</v>
+        <v>138</v>
+      </c>
+      <c r="C46" s="75" t="n">
+        <v>61.0</v>
       </c>
       <c r="D46" s="75" t="s">
-        <v>172</v>
-      </c>
-      <c r="E46" s="75"/>
+        <v>139</v>
+      </c>
+      <c r="E46" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F46" s="75"/>
       <c r="G46" s="75"/>
       <c r="H46" s="75"/>
@@ -3184,18 +6726,20 @@
     </row>
     <row r="47">
       <c r="A47" s="75" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="B47" s="75" t="s">
-        <v>174</v>
-      </c>
-      <c r="C47" s="75" t="s">
-        <v>175</v>
+        <v>141</v>
+      </c>
+      <c r="C47" s="75" t="n">
+        <v>62.0</v>
       </c>
       <c r="D47" s="75" t="s">
-        <v>176</v>
-      </c>
-      <c r="E47" s="75"/>
+        <v>142</v>
+      </c>
+      <c r="E47" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F47" s="75"/>
       <c r="G47" s="75"/>
       <c r="H47" s="75"/>
@@ -3203,18 +6747,20 @@
     </row>
     <row r="48">
       <c r="A48" s="75" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="B48" s="75" t="s">
-        <v>178</v>
-      </c>
-      <c r="C48" s="75" t="s">
-        <v>179</v>
+        <v>144</v>
+      </c>
+      <c r="C48" s="75" t="n">
+        <v>63.0</v>
       </c>
       <c r="D48" s="75" t="s">
-        <v>180</v>
-      </c>
-      <c r="E48" s="75"/>
+        <v>145</v>
+      </c>
+      <c r="E48" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F48" s="75"/>
       <c r="G48" s="75"/>
       <c r="H48" s="75"/>
@@ -3222,18 +6768,20 @@
     </row>
     <row r="49">
       <c r="A49" s="75" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="B49" s="75" t="s">
-        <v>182</v>
-      </c>
-      <c r="C49" s="75" t="s">
-        <v>183</v>
+        <v>147</v>
+      </c>
+      <c r="C49" s="75" t="n">
+        <v>64.0</v>
       </c>
       <c r="D49" s="75" t="s">
-        <v>184</v>
-      </c>
-      <c r="E49" s="75"/>
+        <v>148</v>
+      </c>
+      <c r="E49" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F49" s="75"/>
       <c r="G49" s="75"/>
       <c r="H49" s="75"/>
@@ -3241,18 +6789,20 @@
     </row>
     <row r="50">
       <c r="A50" s="75" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="B50" s="75" t="s">
-        <v>186</v>
-      </c>
-      <c r="C50" s="75" t="s">
-        <v>187</v>
+        <v>150</v>
+      </c>
+      <c r="C50" s="75" t="n">
+        <v>65.0</v>
       </c>
       <c r="D50" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="E50" s="75"/>
+        <v>151</v>
+      </c>
+      <c r="E50" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F50" s="75"/>
       <c r="G50" s="75"/>
       <c r="H50" s="75"/>
@@ -3260,18 +6810,20 @@
     </row>
     <row r="51">
       <c r="A51" s="75" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="B51" s="75" t="s">
-        <v>190</v>
-      </c>
-      <c r="C51" s="75" t="s">
-        <v>191</v>
+        <v>153</v>
+      </c>
+      <c r="C51" s="75" t="n">
+        <v>66.0</v>
       </c>
       <c r="D51" s="75" t="s">
-        <v>192</v>
-      </c>
-      <c r="E51" s="75"/>
+        <v>154</v>
+      </c>
+      <c r="E51" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F51" s="75"/>
       <c r="G51" s="75"/>
       <c r="H51" s="75"/>
@@ -3279,18 +6831,20 @@
     </row>
     <row r="52">
       <c r="A52" s="75" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="B52" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="C52" s="75" t="s">
-        <v>195</v>
+        <v>156</v>
+      </c>
+      <c r="C52" s="75" t="n">
+        <v>67.0</v>
       </c>
       <c r="D52" s="75" t="s">
-        <v>196</v>
-      </c>
-      <c r="E52" s="75"/>
+        <v>157</v>
+      </c>
+      <c r="E52" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F52" s="75"/>
       <c r="G52" s="75"/>
       <c r="H52" s="75"/>
@@ -3298,18 +6852,20 @@
     </row>
     <row r="53">
       <c r="A53" s="75" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="B53" s="75" t="s">
-        <v>198</v>
-      </c>
-      <c r="C53" s="75" t="s">
-        <v>199</v>
+        <v>159</v>
+      </c>
+      <c r="C53" s="75" t="n">
+        <v>68.0</v>
       </c>
       <c r="D53" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="E53" s="75"/>
+        <v>160</v>
+      </c>
+      <c r="E53" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F53" s="75"/>
       <c r="G53" s="75"/>
       <c r="H53" s="75"/>
@@ -3317,18 +6873,20 @@
     </row>
     <row r="54">
       <c r="A54" s="75" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="B54" s="75" t="s">
-        <v>202</v>
-      </c>
-      <c r="C54" s="75" t="s">
-        <v>203</v>
+        <v>162</v>
+      </c>
+      <c r="C54" s="75" t="n">
+        <v>69.0</v>
       </c>
       <c r="D54" s="75" t="s">
-        <v>204</v>
-      </c>
-      <c r="E54" s="75"/>
+        <v>163</v>
+      </c>
+      <c r="E54" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F54" s="75"/>
       <c r="G54" s="75"/>
       <c r="H54" s="75"/>
@@ -3336,18 +6894,20 @@
     </row>
     <row r="55">
       <c r="A55" s="75" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="B55" s="75" t="s">
-        <v>206</v>
-      </c>
-      <c r="C55" s="75" t="s">
-        <v>207</v>
+        <v>165</v>
+      </c>
+      <c r="C55" s="75" t="n">
+        <v>70.0</v>
       </c>
       <c r="D55" s="75" t="s">
-        <v>208</v>
-      </c>
-      <c r="E55" s="75"/>
+        <v>166</v>
+      </c>
+      <c r="E55" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F55" s="75"/>
       <c r="G55" s="75"/>
       <c r="H55" s="75"/>
@@ -3355,18 +6915,20 @@
     </row>
     <row r="56">
       <c r="A56" s="75" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="B56" s="75" t="s">
-        <v>210</v>
-      </c>
-      <c r="C56" s="75" t="s">
-        <v>211</v>
+        <v>168</v>
+      </c>
+      <c r="C56" s="75" t="n">
+        <v>71.0</v>
       </c>
       <c r="D56" s="75" t="s">
-        <v>212</v>
-      </c>
-      <c r="E56" s="75"/>
+        <v>169</v>
+      </c>
+      <c r="E56" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F56" s="75"/>
       <c r="G56" s="75"/>
       <c r="H56" s="75"/>
@@ -3374,18 +6936,20 @@
     </row>
     <row r="57">
       <c r="A57" s="75" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="B57" s="75" t="s">
-        <v>214</v>
-      </c>
-      <c r="C57" s="75" t="s">
-        <v>215</v>
+        <v>171</v>
+      </c>
+      <c r="C57" s="75" t="n">
+        <v>72.0</v>
       </c>
       <c r="D57" s="75" t="s">
-        <v>216</v>
-      </c>
-      <c r="E57" s="75"/>
+        <v>172</v>
+      </c>
+      <c r="E57" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F57" s="75"/>
       <c r="G57" s="75"/>
       <c r="H57" s="75"/>
@@ -3393,18 +6957,20 @@
     </row>
     <row r="58">
       <c r="A58" s="75" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="B58" s="75" t="s">
-        <v>218</v>
-      </c>
-      <c r="C58" s="75" t="s">
-        <v>219</v>
+        <v>174</v>
+      </c>
+      <c r="C58" s="75" t="n">
+        <v>73.0</v>
       </c>
       <c r="D58" s="75" t="s">
-        <v>220</v>
-      </c>
-      <c r="E58" s="75"/>
+        <v>175</v>
+      </c>
+      <c r="E58" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F58" s="75"/>
       <c r="G58" s="75"/>
       <c r="H58" s="75"/>
@@ -3412,18 +6978,20 @@
     </row>
     <row r="59">
       <c r="A59" s="75" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="B59" s="75" t="s">
-        <v>222</v>
-      </c>
-      <c r="C59" s="75" t="s">
-        <v>223</v>
+        <v>177</v>
+      </c>
+      <c r="C59" s="75" t="n">
+        <v>74.0</v>
       </c>
       <c r="D59" s="75" t="s">
-        <v>224</v>
-      </c>
-      <c r="E59" s="75"/>
+        <v>178</v>
+      </c>
+      <c r="E59" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F59" s="75"/>
       <c r="G59" s="75"/>
       <c r="H59" s="75"/>
@@ -3431,18 +6999,20 @@
     </row>
     <row r="60">
       <c r="A60" s="75" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="B60" s="75" t="s">
-        <v>226</v>
-      </c>
-      <c r="C60" s="75" t="s">
-        <v>227</v>
+        <v>180</v>
+      </c>
+      <c r="C60" s="75" t="n">
+        <v>75.0</v>
       </c>
       <c r="D60" s="75" t="s">
-        <v>228</v>
-      </c>
-      <c r="E60" s="75"/>
+        <v>181</v>
+      </c>
+      <c r="E60" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F60" s="75"/>
       <c r="G60" s="75"/>
       <c r="H60" s="75"/>
@@ -3450,18 +7020,20 @@
     </row>
     <row r="61">
       <c r="A61" s="75" t="s">
-        <v>229</v>
+        <v>182</v>
       </c>
       <c r="B61" s="75" t="s">
-        <v>230</v>
-      </c>
-      <c r="C61" s="75" t="s">
-        <v>231</v>
+        <v>183</v>
+      </c>
+      <c r="C61" s="75" t="n">
+        <v>76.0</v>
       </c>
       <c r="D61" s="75" t="s">
-        <v>232</v>
-      </c>
-      <c r="E61" s="75"/>
+        <v>184</v>
+      </c>
+      <c r="E61" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F61" s="75"/>
       <c r="G61" s="75"/>
       <c r="H61" s="75"/>
@@ -3469,18 +7041,20 @@
     </row>
     <row r="62">
       <c r="A62" s="75" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="B62" s="75" t="s">
-        <v>234</v>
-      </c>
-      <c r="C62" s="75" t="s">
-        <v>235</v>
+        <v>186</v>
+      </c>
+      <c r="C62" s="75" t="n">
+        <v>77.0</v>
       </c>
       <c r="D62" s="75" t="s">
-        <v>236</v>
-      </c>
-      <c r="E62" s="75"/>
+        <v>187</v>
+      </c>
+      <c r="E62" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F62" s="75"/>
       <c r="G62" s="75"/>
       <c r="H62" s="75"/>
@@ -3488,18 +7062,20 @@
     </row>
     <row r="63">
       <c r="A63" s="75" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="B63" s="75" t="s">
-        <v>238</v>
-      </c>
-      <c r="C63" s="75" t="s">
-        <v>239</v>
+        <v>189</v>
+      </c>
+      <c r="C63" s="75" t="n">
+        <v>78.0</v>
       </c>
       <c r="D63" s="75" t="s">
-        <v>240</v>
-      </c>
-      <c r="E63" s="75"/>
+        <v>190</v>
+      </c>
+      <c r="E63" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F63" s="75"/>
       <c r="G63" s="75"/>
       <c r="H63" s="75"/>
@@ -3507,18 +7083,20 @@
     </row>
     <row r="64">
       <c r="A64" s="75" t="s">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="B64" s="75" t="s">
-        <v>242</v>
-      </c>
-      <c r="C64" s="75" t="s">
-        <v>243</v>
+        <v>192</v>
+      </c>
+      <c r="C64" s="75" t="n">
+        <v>79.0</v>
       </c>
       <c r="D64" s="75" t="s">
-        <v>244</v>
-      </c>
-      <c r="E64" s="75"/>
+        <v>193</v>
+      </c>
+      <c r="E64" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F64" s="75"/>
       <c r="G64" s="75"/>
       <c r="H64" s="75"/>
@@ -3526,18 +7104,20 @@
     </row>
     <row r="65">
       <c r="A65" s="75" t="s">
-        <v>245</v>
+        <v>194</v>
       </c>
       <c r="B65" s="75" t="s">
-        <v>246</v>
-      </c>
-      <c r="C65" s="75" t="s">
-        <v>247</v>
+        <v>195</v>
+      </c>
+      <c r="C65" s="75" t="n">
+        <v>80.0</v>
       </c>
       <c r="D65" s="75" t="s">
-        <v>248</v>
-      </c>
-      <c r="E65" s="75"/>
+        <v>196</v>
+      </c>
+      <c r="E65" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F65" s="75"/>
       <c r="G65" s="75"/>
       <c r="H65" s="75"/>
@@ -3545,18 +7125,20 @@
     </row>
     <row r="66">
       <c r="A66" s="75" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="B66" s="75" t="s">
-        <v>250</v>
-      </c>
-      <c r="C66" s="75" t="s">
-        <v>251</v>
+        <v>198</v>
+      </c>
+      <c r="C66" s="75" t="n">
+        <v>81.0</v>
       </c>
       <c r="D66" s="75" t="s">
-        <v>252</v>
-      </c>
-      <c r="E66" s="75"/>
+        <v>199</v>
+      </c>
+      <c r="E66" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F66" s="75"/>
       <c r="G66" s="75"/>
       <c r="H66" s="75"/>
@@ -3564,18 +7146,20 @@
     </row>
     <row r="67">
       <c r="A67" s="75" t="s">
-        <v>253</v>
+        <v>200</v>
       </c>
       <c r="B67" s="75" t="s">
-        <v>254</v>
-      </c>
-      <c r="C67" s="75" t="s">
-        <v>255</v>
+        <v>201</v>
+      </c>
+      <c r="C67" s="75" t="n">
+        <v>82.0</v>
       </c>
       <c r="D67" s="75" t="s">
-        <v>256</v>
-      </c>
-      <c r="E67" s="75"/>
+        <v>202</v>
+      </c>
+      <c r="E67" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F67" s="75"/>
       <c r="G67" s="75"/>
       <c r="H67" s="75"/>
@@ -3583,18 +7167,20 @@
     </row>
     <row r="68">
       <c r="A68" s="75" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="B68" s="75" t="s">
-        <v>258</v>
-      </c>
-      <c r="C68" s="75" t="s">
-        <v>259</v>
+        <v>204</v>
+      </c>
+      <c r="C68" s="75" t="n">
+        <v>83.0</v>
       </c>
       <c r="D68" s="75" t="s">
-        <v>260</v>
-      </c>
-      <c r="E68" s="75"/>
+        <v>205</v>
+      </c>
+      <c r="E68" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F68" s="75"/>
       <c r="G68" s="75"/>
       <c r="H68" s="75"/>
@@ -3602,18 +7188,20 @@
     </row>
     <row r="69">
       <c r="A69" s="75" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="B69" s="75" t="s">
-        <v>262</v>
-      </c>
-      <c r="C69" s="75" t="s">
-        <v>263</v>
+        <v>207</v>
+      </c>
+      <c r="C69" s="75" t="n">
+        <v>84.0</v>
       </c>
       <c r="D69" s="75" t="s">
-        <v>264</v>
-      </c>
-      <c r="E69" s="75"/>
+        <v>208</v>
+      </c>
+      <c r="E69" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F69" s="75"/>
       <c r="G69" s="75"/>
       <c r="H69" s="75"/>
@@ -3621,18 +7209,20 @@
     </row>
     <row r="70">
       <c r="A70" s="75" t="s">
-        <v>265</v>
+        <v>209</v>
       </c>
       <c r="B70" s="75" t="s">
-        <v>266</v>
-      </c>
-      <c r="C70" s="75" t="s">
-        <v>267</v>
+        <v>210</v>
+      </c>
+      <c r="C70" s="75" t="n">
+        <v>85.0</v>
       </c>
       <c r="D70" s="75" t="s">
-        <v>268</v>
-      </c>
-      <c r="E70" s="75"/>
+        <v>211</v>
+      </c>
+      <c r="E70" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F70" s="75"/>
       <c r="G70" s="75"/>
       <c r="H70" s="75"/>
@@ -3640,18 +7230,20 @@
     </row>
     <row r="71">
       <c r="A71" s="75" t="s">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="B71" s="75" t="s">
-        <v>270</v>
-      </c>
-      <c r="C71" s="75" t="s">
-        <v>271</v>
+        <v>213</v>
+      </c>
+      <c r="C71" s="75" t="n">
+        <v>86.0</v>
       </c>
       <c r="D71" s="75" t="s">
-        <v>272</v>
-      </c>
-      <c r="E71" s="75"/>
+        <v>214</v>
+      </c>
+      <c r="E71" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F71" s="75"/>
       <c r="G71" s="75"/>
       <c r="H71" s="75"/>
@@ -3659,18 +7251,20 @@
     </row>
     <row r="72">
       <c r="A72" s="75" t="s">
-        <v>273</v>
+        <v>215</v>
       </c>
       <c r="B72" s="75" t="s">
-        <v>274</v>
-      </c>
-      <c r="C72" s="75" t="s">
-        <v>275</v>
+        <v>216</v>
+      </c>
+      <c r="C72" s="75" t="n">
+        <v>87.0</v>
       </c>
       <c r="D72" s="75" t="s">
-        <v>276</v>
-      </c>
-      <c r="E72" s="75"/>
+        <v>217</v>
+      </c>
+      <c r="E72" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F72" s="75"/>
       <c r="G72" s="75"/>
       <c r="H72" s="75"/>
@@ -3678,18 +7272,20 @@
     </row>
     <row r="73">
       <c r="A73" s="75" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="B73" s="75" t="s">
-        <v>278</v>
-      </c>
-      <c r="C73" s="75" t="s">
-        <v>279</v>
+        <v>219</v>
+      </c>
+      <c r="C73" s="75" t="n">
+        <v>88.0</v>
       </c>
       <c r="D73" s="75" t="s">
-        <v>280</v>
-      </c>
-      <c r="E73" s="75"/>
+        <v>220</v>
+      </c>
+      <c r="E73" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F73" s="75"/>
       <c r="G73" s="75"/>
       <c r="H73" s="75"/>
@@ -3697,18 +7293,20 @@
     </row>
     <row r="74">
       <c r="A74" s="75" t="s">
-        <v>281</v>
+        <v>221</v>
       </c>
       <c r="B74" s="75" t="s">
-        <v>282</v>
-      </c>
-      <c r="C74" s="75" t="s">
-        <v>283</v>
+        <v>222</v>
+      </c>
+      <c r="C74" s="75" t="n">
+        <v>89.0</v>
       </c>
       <c r="D74" s="75" t="s">
-        <v>284</v>
-      </c>
-      <c r="E74" s="75"/>
+        <v>223</v>
+      </c>
+      <c r="E74" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F74" s="75"/>
       <c r="G74" s="75"/>
       <c r="H74" s="75"/>
@@ -3716,18 +7314,20 @@
     </row>
     <row r="75">
       <c r="A75" s="75" t="s">
-        <v>285</v>
+        <v>224</v>
       </c>
       <c r="B75" s="75" t="s">
-        <v>286</v>
-      </c>
-      <c r="C75" s="75" t="s">
-        <v>287</v>
+        <v>225</v>
+      </c>
+      <c r="C75" s="75" t="n">
+        <v>90.0</v>
       </c>
       <c r="D75" s="75" t="s">
-        <v>288</v>
-      </c>
-      <c r="E75" s="75"/>
+        <v>226</v>
+      </c>
+      <c r="E75" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F75" s="75"/>
       <c r="G75" s="75"/>
       <c r="H75" s="75"/>
@@ -3735,18 +7335,20 @@
     </row>
     <row r="76">
       <c r="A76" s="75" t="s">
-        <v>289</v>
+        <v>227</v>
       </c>
       <c r="B76" s="75" t="s">
-        <v>290</v>
-      </c>
-      <c r="C76" s="75" t="s">
-        <v>291</v>
+        <v>228</v>
+      </c>
+      <c r="C76" s="75" t="n">
+        <v>91.0</v>
       </c>
       <c r="D76" s="75" t="s">
-        <v>292</v>
-      </c>
-      <c r="E76" s="75"/>
+        <v>229</v>
+      </c>
+      <c r="E76" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F76" s="75"/>
       <c r="G76" s="75"/>
       <c r="H76" s="75"/>
@@ -3754,18 +7356,20 @@
     </row>
     <row r="77">
       <c r="A77" s="75" t="s">
-        <v>293</v>
+        <v>230</v>
       </c>
       <c r="B77" s="75" t="s">
-        <v>294</v>
-      </c>
-      <c r="C77" s="75" t="s">
-        <v>295</v>
+        <v>231</v>
+      </c>
+      <c r="C77" s="75" t="n">
+        <v>92.0</v>
       </c>
       <c r="D77" s="75" t="s">
-        <v>296</v>
-      </c>
-      <c r="E77" s="75"/>
+        <v>232</v>
+      </c>
+      <c r="E77" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F77" s="75"/>
       <c r="G77" s="75"/>
       <c r="H77" s="75"/>
@@ -3773,18 +7377,20 @@
     </row>
     <row r="78">
       <c r="A78" s="75" t="s">
-        <v>297</v>
+        <v>233</v>
       </c>
       <c r="B78" s="75" t="s">
-        <v>298</v>
-      </c>
-      <c r="C78" s="75" t="s">
-        <v>299</v>
+        <v>234</v>
+      </c>
+      <c r="C78" s="75" t="n">
+        <v>93.0</v>
       </c>
       <c r="D78" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="E78" s="75"/>
+        <v>235</v>
+      </c>
+      <c r="E78" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F78" s="75"/>
       <c r="G78" s="75"/>
       <c r="H78" s="75"/>
@@ -3792,18 +7398,20 @@
     </row>
     <row r="79">
       <c r="A79" s="75" t="s">
-        <v>301</v>
+        <v>236</v>
       </c>
       <c r="B79" s="75" t="s">
-        <v>302</v>
-      </c>
-      <c r="C79" s="75" t="s">
-        <v>303</v>
+        <v>237</v>
+      </c>
+      <c r="C79" s="75" t="n">
+        <v>94.0</v>
       </c>
       <c r="D79" s="75" t="s">
-        <v>304</v>
-      </c>
-      <c r="E79" s="75"/>
+        <v>238</v>
+      </c>
+      <c r="E79" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F79" s="75"/>
       <c r="G79" s="75"/>
       <c r="H79" s="75"/>
@@ -3811,18 +7419,20 @@
     </row>
     <row r="80">
       <c r="A80" s="75" t="s">
-        <v>305</v>
+        <v>239</v>
       </c>
       <c r="B80" s="75" t="s">
-        <v>306</v>
-      </c>
-      <c r="C80" s="75" t="s">
-        <v>307</v>
+        <v>240</v>
+      </c>
+      <c r="C80" s="75" t="n">
+        <v>95.0</v>
       </c>
       <c r="D80" s="75" t="s">
-        <v>308</v>
-      </c>
-      <c r="E80" s="75"/>
+        <v>241</v>
+      </c>
+      <c r="E80" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F80" s="75"/>
       <c r="G80" s="75"/>
       <c r="H80" s="75"/>
@@ -3830,18 +7440,20 @@
     </row>
     <row r="81">
       <c r="A81" s="75" t="s">
-        <v>309</v>
+        <v>242</v>
       </c>
       <c r="B81" s="75" t="s">
-        <v>310</v>
-      </c>
-      <c r="C81" s="75" t="s">
-        <v>311</v>
+        <v>243</v>
+      </c>
+      <c r="C81" s="75" t="n">
+        <v>96.0</v>
       </c>
       <c r="D81" s="75" t="s">
-        <v>312</v>
-      </c>
-      <c r="E81" s="75"/>
+        <v>244</v>
+      </c>
+      <c r="E81" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F81" s="75"/>
       <c r="G81" s="75"/>
       <c r="H81" s="75"/>
@@ -3849,18 +7461,20 @@
     </row>
     <row r="82">
       <c r="A82" s="75" t="s">
-        <v>313</v>
+        <v>245</v>
       </c>
       <c r="B82" s="75" t="s">
-        <v>314</v>
-      </c>
-      <c r="C82" s="75" t="s">
-        <v>315</v>
+        <v>246</v>
+      </c>
+      <c r="C82" s="75" t="n">
+        <v>97.0</v>
       </c>
       <c r="D82" s="75" t="s">
-        <v>316</v>
-      </c>
-      <c r="E82" s="75"/>
+        <v>247</v>
+      </c>
+      <c r="E82" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F82" s="75"/>
       <c r="G82" s="75"/>
       <c r="H82" s="75"/>
@@ -3868,18 +7482,20 @@
     </row>
     <row r="83">
       <c r="A83" s="75" t="s">
-        <v>317</v>
+        <v>248</v>
       </c>
       <c r="B83" s="75" t="s">
-        <v>318</v>
-      </c>
-      <c r="C83" s="75" t="s">
-        <v>319</v>
+        <v>249</v>
+      </c>
+      <c r="C83" s="75" t="n">
+        <v>98.0</v>
       </c>
       <c r="D83" s="75" t="s">
-        <v>320</v>
-      </c>
-      <c r="E83" s="75"/>
+        <v>250</v>
+      </c>
+      <c r="E83" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F83" s="75"/>
       <c r="G83" s="75"/>
       <c r="H83" s="75"/>
@@ -3887,18 +7503,20 @@
     </row>
     <row r="84">
       <c r="A84" s="75" t="s">
-        <v>321</v>
+        <v>251</v>
       </c>
       <c r="B84" s="75" t="s">
-        <v>322</v>
-      </c>
-      <c r="C84" s="75" t="s">
-        <v>323</v>
+        <v>252</v>
+      </c>
+      <c r="C84" s="75" t="n">
+        <v>99.0</v>
       </c>
       <c r="D84" s="75" t="s">
-        <v>324</v>
-      </c>
-      <c r="E84" s="75"/>
+        <v>253</v>
+      </c>
+      <c r="E84" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F84" s="75"/>
       <c r="G84" s="75"/>
       <c r="H84" s="75"/>
@@ -3906,18 +7524,20 @@
     </row>
     <row r="85">
       <c r="A85" s="75" t="s">
-        <v>325</v>
+        <v>254</v>
       </c>
       <c r="B85" s="75" t="s">
-        <v>326</v>
-      </c>
-      <c r="C85" s="75" t="s">
-        <v>327</v>
+        <v>255</v>
+      </c>
+      <c r="C85" s="75" t="n">
+        <v>100.0</v>
       </c>
       <c r="D85" s="75" t="s">
-        <v>328</v>
-      </c>
-      <c r="E85" s="75"/>
+        <v>256</v>
+      </c>
+      <c r="E85" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F85" s="75"/>
       <c r="G85" s="75"/>
       <c r="H85" s="75"/>
@@ -3925,18 +7545,20 @@
     </row>
     <row r="86">
       <c r="A86" s="75" t="s">
-        <v>329</v>
+        <v>257</v>
       </c>
       <c r="B86" s="75" t="s">
-        <v>330</v>
-      </c>
-      <c r="C86" s="75" t="s">
-        <v>331</v>
+        <v>258</v>
+      </c>
+      <c r="C86" s="75" t="n">
+        <v>101.0</v>
       </c>
       <c r="D86" s="75" t="s">
-        <v>332</v>
-      </c>
-      <c r="E86" s="75"/>
+        <v>259</v>
+      </c>
+      <c r="E86" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F86" s="75"/>
       <c r="G86" s="75"/>
       <c r="H86" s="75"/>
@@ -3944,18 +7566,20 @@
     </row>
     <row r="87">
       <c r="A87" s="75" t="s">
-        <v>333</v>
+        <v>260</v>
       </c>
       <c r="B87" s="75" t="s">
-        <v>334</v>
-      </c>
-      <c r="C87" s="75" t="s">
-        <v>335</v>
+        <v>261</v>
+      </c>
+      <c r="C87" s="75" t="n">
+        <v>102.0</v>
       </c>
       <c r="D87" s="75" t="s">
-        <v>336</v>
-      </c>
-      <c r="E87" s="75"/>
+        <v>262</v>
+      </c>
+      <c r="E87" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F87" s="75"/>
       <c r="G87" s="75"/>
       <c r="H87" s="75"/>
@@ -3963,18 +7587,20 @@
     </row>
     <row r="88">
       <c r="A88" s="75" t="s">
-        <v>337</v>
+        <v>263</v>
       </c>
       <c r="B88" s="75" t="s">
-        <v>338</v>
-      </c>
-      <c r="C88" s="75" t="s">
-        <v>339</v>
+        <v>264</v>
+      </c>
+      <c r="C88" s="75" t="n">
+        <v>103.0</v>
       </c>
       <c r="D88" s="75" t="s">
-        <v>340</v>
-      </c>
-      <c r="E88" s="75"/>
+        <v>265</v>
+      </c>
+      <c r="E88" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F88" s="75"/>
       <c r="G88" s="75"/>
       <c r="H88" s="75"/>
@@ -3982,18 +7608,20 @@
     </row>
     <row r="89">
       <c r="A89" s="75" t="s">
-        <v>341</v>
+        <v>266</v>
       </c>
       <c r="B89" s="75" t="s">
-        <v>342</v>
-      </c>
-      <c r="C89" s="75" t="s">
-        <v>343</v>
+        <v>267</v>
+      </c>
+      <c r="C89" s="75" t="n">
+        <v>104.0</v>
       </c>
       <c r="D89" s="75" t="s">
-        <v>344</v>
-      </c>
-      <c r="E89" s="75"/>
+        <v>268</v>
+      </c>
+      <c r="E89" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F89" s="75"/>
       <c r="G89" s="75"/>
       <c r="H89" s="75"/>
@@ -4001,18 +7629,20 @@
     </row>
     <row r="90">
       <c r="A90" s="75" t="s">
-        <v>345</v>
+        <v>269</v>
       </c>
       <c r="B90" s="75" t="s">
-        <v>346</v>
-      </c>
-      <c r="C90" s="75" t="s">
-        <v>347</v>
+        <v>270</v>
+      </c>
+      <c r="C90" s="75" t="n">
+        <v>105.0</v>
       </c>
       <c r="D90" s="75" t="s">
-        <v>348</v>
-      </c>
-      <c r="E90" s="75"/>
+        <v>271</v>
+      </c>
+      <c r="E90" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F90" s="75"/>
       <c r="G90" s="75"/>
       <c r="H90" s="75"/>
@@ -4020,18 +7650,20 @@
     </row>
     <row r="91">
       <c r="A91" s="75" t="s">
-        <v>349</v>
+        <v>272</v>
       </c>
       <c r="B91" s="75" t="s">
-        <v>350</v>
-      </c>
-      <c r="C91" s="75" t="s">
-        <v>351</v>
+        <v>273</v>
+      </c>
+      <c r="C91" s="75" t="n">
+        <v>106.0</v>
       </c>
       <c r="D91" s="75" t="s">
-        <v>352</v>
-      </c>
-      <c r="E91" s="75"/>
+        <v>274</v>
+      </c>
+      <c r="E91" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F91" s="75"/>
       <c r="G91" s="75"/>
       <c r="H91" s="75"/>
@@ -4039,18 +7671,20 @@
     </row>
     <row r="92">
       <c r="A92" s="75" t="s">
-        <v>353</v>
+        <v>275</v>
       </c>
       <c r="B92" s="75" t="s">
-        <v>354</v>
-      </c>
-      <c r="C92" s="75" t="s">
-        <v>355</v>
+        <v>276</v>
+      </c>
+      <c r="C92" s="75" t="n">
+        <v>107.0</v>
       </c>
       <c r="D92" s="75" t="s">
-        <v>356</v>
-      </c>
-      <c r="E92" s="75"/>
+        <v>277</v>
+      </c>
+      <c r="E92" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F92" s="75"/>
       <c r="G92" s="75"/>
       <c r="H92" s="75"/>
@@ -4058,18 +7692,20 @@
     </row>
     <row r="93">
       <c r="A93" s="75" t="s">
-        <v>357</v>
+        <v>278</v>
       </c>
       <c r="B93" s="75" t="s">
-        <v>358</v>
-      </c>
-      <c r="C93" s="75" t="s">
-        <v>359</v>
+        <v>279</v>
+      </c>
+      <c r="C93" s="75" t="n">
+        <v>108.0</v>
       </c>
       <c r="D93" s="75" t="s">
-        <v>360</v>
-      </c>
-      <c r="E93" s="75"/>
+        <v>280</v>
+      </c>
+      <c r="E93" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F93" s="75"/>
       <c r="G93" s="75"/>
       <c r="H93" s="75"/>
@@ -4077,18 +7713,20 @@
     </row>
     <row r="94">
       <c r="A94" s="75" t="s">
-        <v>361</v>
+        <v>281</v>
       </c>
       <c r="B94" s="75" t="s">
-        <v>362</v>
-      </c>
-      <c r="C94" s="75" t="s">
-        <v>363</v>
+        <v>282</v>
+      </c>
+      <c r="C94" s="75" t="n">
+        <v>109.0</v>
       </c>
       <c r="D94" s="75" t="s">
-        <v>364</v>
-      </c>
-      <c r="E94" s="75"/>
+        <v>283</v>
+      </c>
+      <c r="E94" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F94" s="75"/>
       <c r="G94" s="75"/>
       <c r="H94" s="75"/>
@@ -4096,18 +7734,20 @@
     </row>
     <row r="95">
       <c r="A95" s="75" t="s">
-        <v>365</v>
+        <v>284</v>
       </c>
       <c r="B95" s="75" t="s">
-        <v>366</v>
-      </c>
-      <c r="C95" s="75" t="s">
-        <v>367</v>
+        <v>285</v>
+      </c>
+      <c r="C95" s="75" t="n">
+        <v>110.0</v>
       </c>
       <c r="D95" s="75" t="s">
-        <v>368</v>
-      </c>
-      <c r="E95" s="75"/>
+        <v>286</v>
+      </c>
+      <c r="E95" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F95" s="75"/>
       <c r="G95" s="75"/>
       <c r="H95" s="75"/>
@@ -4115,18 +7755,20 @@
     </row>
     <row r="96">
       <c r="A96" s="75" t="s">
-        <v>369</v>
+        <v>287</v>
       </c>
       <c r="B96" s="75" t="s">
-        <v>370</v>
-      </c>
-      <c r="C96" s="75" t="s">
-        <v>371</v>
+        <v>288</v>
+      </c>
+      <c r="C96" s="75" t="n">
+        <v>111.0</v>
       </c>
       <c r="D96" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="E96" s="75"/>
+        <v>289</v>
+      </c>
+      <c r="E96" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F96" s="75"/>
       <c r="G96" s="75"/>
       <c r="H96" s="75"/>
@@ -4134,18 +7776,20 @@
     </row>
     <row r="97">
       <c r="A97" s="75" t="s">
-        <v>373</v>
+        <v>290</v>
       </c>
       <c r="B97" s="75" t="s">
-        <v>374</v>
-      </c>
-      <c r="C97" s="75" t="s">
-        <v>375</v>
+        <v>291</v>
+      </c>
+      <c r="C97" s="75" t="n">
+        <v>112.0</v>
       </c>
       <c r="D97" s="75" t="s">
-        <v>376</v>
-      </c>
-      <c r="E97" s="75"/>
+        <v>292</v>
+      </c>
+      <c r="E97" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F97" s="75"/>
       <c r="G97" s="75"/>
       <c r="H97" s="75"/>
@@ -4153,18 +7797,20 @@
     </row>
     <row r="98">
       <c r="A98" s="75" t="s">
-        <v>377</v>
+        <v>293</v>
       </c>
       <c r="B98" s="75" t="s">
-        <v>378</v>
-      </c>
-      <c r="C98" s="75" t="s">
-        <v>379</v>
+        <v>294</v>
+      </c>
+      <c r="C98" s="75" t="n">
+        <v>113.0</v>
       </c>
       <c r="D98" s="75" t="s">
-        <v>380</v>
-      </c>
-      <c r="E98" s="75"/>
+        <v>295</v>
+      </c>
+      <c r="E98" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F98" s="75"/>
       <c r="G98" s="75"/>
       <c r="H98" s="75"/>
@@ -4172,18 +7818,20 @@
     </row>
     <row r="99">
       <c r="A99" s="75" t="s">
-        <v>381</v>
+        <v>296</v>
       </c>
       <c r="B99" s="75" t="s">
-        <v>382</v>
-      </c>
-      <c r="C99" s="75" t="s">
-        <v>383</v>
+        <v>297</v>
+      </c>
+      <c r="C99" s="75" t="n">
+        <v>114.0</v>
       </c>
       <c r="D99" s="75" t="s">
-        <v>384</v>
-      </c>
-      <c r="E99" s="75"/>
+        <v>298</v>
+      </c>
+      <c r="E99" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F99" s="75"/>
       <c r="G99" s="75"/>
       <c r="H99" s="75"/>
@@ -4191,18 +7839,20 @@
     </row>
     <row r="100">
       <c r="A100" s="75" t="s">
-        <v>385</v>
+        <v>299</v>
       </c>
       <c r="B100" s="75" t="s">
-        <v>386</v>
-      </c>
-      <c r="C100" s="75" t="s">
-        <v>387</v>
+        <v>300</v>
+      </c>
+      <c r="C100" s="75" t="n">
+        <v>115.0</v>
       </c>
       <c r="D100" s="75" t="s">
-        <v>388</v>
-      </c>
-      <c r="E100" s="75"/>
+        <v>301</v>
+      </c>
+      <c r="E100" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F100" s="75"/>
       <c r="G100" s="75"/>
       <c r="H100" s="75"/>
@@ -4210,18 +7860,20 @@
     </row>
     <row r="101">
       <c r="A101" s="75" t="s">
-        <v>389</v>
+        <v>302</v>
       </c>
       <c r="B101" s="75" t="s">
-        <v>390</v>
-      </c>
-      <c r="C101" s="75" t="s">
-        <v>391</v>
+        <v>303</v>
+      </c>
+      <c r="C101" s="75" t="n">
+        <v>116.0</v>
       </c>
       <c r="D101" s="75" t="s">
-        <v>392</v>
-      </c>
-      <c r="E101" s="75"/>
+        <v>304</v>
+      </c>
+      <c r="E101" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F101" s="75"/>
       <c r="G101" s="75"/>
       <c r="H101" s="75"/>
@@ -4229,18 +7881,20 @@
     </row>
     <row r="102">
       <c r="A102" s="75" t="s">
-        <v>393</v>
+        <v>305</v>
       </c>
       <c r="B102" s="75" t="s">
-        <v>394</v>
-      </c>
-      <c r="C102" s="75" t="s">
-        <v>395</v>
+        <v>306</v>
+      </c>
+      <c r="C102" s="75" t="n">
+        <v>117.0</v>
       </c>
       <c r="D102" s="75" t="s">
-        <v>396</v>
-      </c>
-      <c r="E102" s="75"/>
+        <v>307</v>
+      </c>
+      <c r="E102" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F102" s="75"/>
       <c r="G102" s="75"/>
       <c r="H102" s="75"/>
@@ -4248,18 +7902,20 @@
     </row>
     <row r="103">
       <c r="A103" s="75" t="s">
-        <v>397</v>
+        <v>308</v>
       </c>
       <c r="B103" s="75" t="s">
-        <v>398</v>
-      </c>
-      <c r="C103" s="75" t="s">
-        <v>399</v>
+        <v>309</v>
+      </c>
+      <c r="C103" s="75" t="n">
+        <v>118.0</v>
       </c>
       <c r="D103" s="75" t="s">
-        <v>400</v>
-      </c>
-      <c r="E103" s="75"/>
+        <v>310</v>
+      </c>
+      <c r="E103" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F103" s="75"/>
       <c r="G103" s="75"/>
       <c r="H103" s="75"/>
@@ -4267,18 +7923,20 @@
     </row>
     <row r="104">
       <c r="A104" s="75" t="s">
-        <v>401</v>
+        <v>311</v>
       </c>
       <c r="B104" s="75" t="s">
-        <v>402</v>
-      </c>
-      <c r="C104" s="75" t="s">
-        <v>403</v>
+        <v>312</v>
+      </c>
+      <c r="C104" s="75" t="n">
+        <v>119.0</v>
       </c>
       <c r="D104" s="75" t="s">
-        <v>404</v>
-      </c>
-      <c r="E104" s="75"/>
+        <v>313</v>
+      </c>
+      <c r="E104" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F104" s="75"/>
       <c r="G104" s="75"/>
       <c r="H104" s="75"/>
@@ -4286,18 +7944,20 @@
     </row>
     <row r="105">
       <c r="A105" s="75" t="s">
-        <v>405</v>
+        <v>314</v>
       </c>
       <c r="B105" s="75" t="s">
-        <v>406</v>
-      </c>
-      <c r="C105" s="75" t="s">
-        <v>407</v>
+        <v>315</v>
+      </c>
+      <c r="C105" s="75" t="n">
+        <v>120.0</v>
       </c>
       <c r="D105" s="75" t="s">
-        <v>408</v>
-      </c>
-      <c r="E105" s="75"/>
+        <v>316</v>
+      </c>
+      <c r="E105" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F105" s="75"/>
       <c r="G105" s="75"/>
       <c r="H105" s="75"/>
@@ -4305,18 +7965,20 @@
     </row>
     <row r="106">
       <c r="A106" s="75" t="s">
-        <v>409</v>
+        <v>317</v>
       </c>
       <c r="B106" s="75" t="s">
-        <v>410</v>
-      </c>
-      <c r="C106" s="75" t="s">
-        <v>411</v>
+        <v>318</v>
+      </c>
+      <c r="C106" s="75" t="n">
+        <v>121.0</v>
       </c>
       <c r="D106" s="75" t="s">
-        <v>412</v>
-      </c>
-      <c r="E106" s="75"/>
+        <v>319</v>
+      </c>
+      <c r="E106" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F106" s="75"/>
       <c r="G106" s="75"/>
       <c r="H106" s="75"/>
@@ -4324,18 +7986,20 @@
     </row>
     <row r="107">
       <c r="A107" s="75" t="s">
-        <v>413</v>
+        <v>320</v>
       </c>
       <c r="B107" s="75" t="s">
-        <v>414</v>
-      </c>
-      <c r="C107" s="75" t="s">
-        <v>415</v>
+        <v>321</v>
+      </c>
+      <c r="C107" s="75" t="n">
+        <v>122.0</v>
       </c>
       <c r="D107" s="75" t="s">
-        <v>416</v>
-      </c>
-      <c r="E107" s="75"/>
+        <v>322</v>
+      </c>
+      <c r="E107" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F107" s="75"/>
       <c r="G107" s="75"/>
       <c r="H107" s="75"/>
@@ -4343,18 +8007,20 @@
     </row>
     <row r="108">
       <c r="A108" s="75" t="s">
-        <v>417</v>
+        <v>323</v>
       </c>
       <c r="B108" s="75" t="s">
-        <v>418</v>
-      </c>
-      <c r="C108" s="75" t="s">
-        <v>419</v>
+        <v>324</v>
+      </c>
+      <c r="C108" s="75" t="n">
+        <v>123.0</v>
       </c>
       <c r="D108" s="75" t="s">
-        <v>420</v>
-      </c>
-      <c r="E108" s="75"/>
+        <v>325</v>
+      </c>
+      <c r="E108" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F108" s="75"/>
       <c r="G108" s="75"/>
       <c r="H108" s="75"/>
@@ -4362,18 +8028,20 @@
     </row>
     <row r="109">
       <c r="A109" s="75" t="s">
-        <v>421</v>
+        <v>326</v>
       </c>
       <c r="B109" s="75" t="s">
-        <v>422</v>
-      </c>
-      <c r="C109" s="75" t="s">
-        <v>423</v>
+        <v>327</v>
+      </c>
+      <c r="C109" s="75" t="n">
+        <v>124.0</v>
       </c>
       <c r="D109" s="75" t="s">
-        <v>424</v>
-      </c>
-      <c r="E109" s="75"/>
+        <v>328</v>
+      </c>
+      <c r="E109" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F109" s="75"/>
       <c r="G109" s="75"/>
       <c r="H109" s="75"/>
@@ -4381,18 +8049,20 @@
     </row>
     <row r="110">
       <c r="A110" s="75" t="s">
-        <v>425</v>
+        <v>329</v>
       </c>
       <c r="B110" s="75" t="s">
-        <v>426</v>
-      </c>
-      <c r="C110" s="75" t="s">
-        <v>427</v>
+        <v>330</v>
+      </c>
+      <c r="C110" s="75" t="n">
+        <v>125.0</v>
       </c>
       <c r="D110" s="75" t="s">
-        <v>428</v>
-      </c>
-      <c r="E110" s="75"/>
+        <v>331</v>
+      </c>
+      <c r="E110" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F110" s="75"/>
       <c r="G110" s="75"/>
       <c r="H110" s="75"/>
@@ -4400,28 +8070,30 @@
     </row>
     <row r="111">
       <c r="A111" s="75" t="s">
-        <v>429</v>
+        <v>332</v>
       </c>
       <c r="B111" s="75" t="s">
-        <v>430</v>
-      </c>
-      <c r="C111" s="75" t="s">
-        <v>431</v>
+        <v>333</v>
+      </c>
+      <c r="C111" s="75" t="n">
+        <v>126.0</v>
       </c>
       <c r="D111" s="75" t="s">
-        <v>432</v>
-      </c>
-      <c r="E111" s="75"/>
+        <v>334</v>
+      </c>
+      <c r="E111" s="75" t="s">
+        <v>37</v>
+      </c>
       <c r="F111" s="75"/>
       <c r="G111" s="75"/>
       <c r="H111" s="75"/>
       <c r="I111" s="75"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="41" t="s">
+      <c r="A112" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B112" s="42"/>
+      <c r="B112" s="61"/>
       <c r="C112" s="17"/>
       <c r="D112" s="18"/>
       <c r="E112" s="17"/>
@@ -4457,10 +8129,10 @@
       <c r="I114" s="22"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="41" t="s">
+      <c r="A115" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B115" s="42"/>
+      <c r="B115" s="61"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -4484,11 +8156,11 @@
       <c r="A117" s="8"/>
       <c r="B117" s="9"/>
       <c r="C117" s="10"/>
-      <c r="D117" s="43" t="s">
+      <c r="D117" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="E117" s="43"/>
-      <c r="F117" s="44"/>
+      <c r="E117" s="62"/>
+      <c r="F117" s="63"/>
       <c r="G117" s="12"/>
       <c r="H117" s="12" t="s">
         <v>23</v>
@@ -4496,28 +8168,28 @@
       <c r="I117" s="11"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" s="41" t="s">
+      <c r="A118" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="B118" s="42"/>
-      <c r="C118" s="45"/>
-      <c r="D118" s="45"/>
-      <c r="E118" s="45"/>
-      <c r="F118" s="42"/>
-      <c r="G118" s="42"/>
-      <c r="H118" s="42"/>
-      <c r="I118" s="46"/>
+      <c r="B118" s="61"/>
+      <c r="C118" s="64"/>
+      <c r="D118" s="64"/>
+      <c r="E118" s="64"/>
+      <c r="F118" s="61"/>
+      <c r="G118" s="61"/>
+      <c r="H118" s="61"/>
+      <c r="I118" s="65"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A119" s="33"/>
-      <c r="B119" s="34"/>
-      <c r="C119" s="35"/>
-      <c r="D119" s="36"/>
-      <c r="E119" s="36"/>
-      <c r="F119" s="37"/>
-      <c r="G119" s="37"/>
-      <c r="H119" s="37"/>
-      <c r="I119" s="38"/>
+      <c r="A119" s="54"/>
+      <c r="B119" s="55"/>
+      <c r="C119" s="56"/>
+      <c r="D119" s="57"/>
+      <c r="E119" s="57"/>
+      <c r="F119" s="58"/>
+      <c r="G119" s="58"/>
+      <c r="H119" s="58"/>
+      <c r="I119" s="59"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="13"/>
@@ -4536,23 +8208,23 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E6:I9"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:C4"/>
     <mergeCell ref="D3:E4"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="E6:I9"/>
     <mergeCell ref="A119:I119"/>
     <mergeCell ref="A112:B112"/>
     <mergeCell ref="A115:B115"/>

--- a/src/main/resources/templateOut.xlsx
+++ b/src/main/resources/templateOut.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\code\excel-poi\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB34FF00-A3DE-4BC6-BEA2-CB4A5E180D50}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C72A566-3FED-41F4-8C14-A02EADE2B6D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{66375A15-073F-4B75-B3CA-72366F63B53F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{66375A15-073F-4B75-B3CA-72366F63B53F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="336">
   <si>
     <t>西安市轨道交通工程施工质量验收技术资料统一用表</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t xml:space="preserve">项目名称：   </t>
-  </si>
-  <si>
-    <t>监测点位示意图后附</t>
   </si>
   <si>
     <t>监测项目：</t>
@@ -138,6 +135,9 @@
   <si>
     <t>${picture}</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${picture}</t>
   </si>
   <si>
     <t>高磊0</t>
@@ -1436,69 +1436,6 @@
     <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1516,6 +1453,12 @@
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1560,6 +1503,63 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
@@ -1715,15 +1715,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>11</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>12</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -1753,15 +1753,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>12</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>13</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -1791,15 +1791,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>13</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>14</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -1829,15 +1829,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>14</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>15</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -1867,15 +1867,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>15</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>16</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -1905,15 +1905,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>16</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>17</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -1943,15 +1943,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>17</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>18</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -1981,15 +1981,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>18</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>19</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -2019,15 +2019,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>19</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>20</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -2057,15 +2057,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>20</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>21</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -2095,15 +2095,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>21</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>22</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -2133,15 +2133,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>22</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>23</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -2171,15 +2171,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>23</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>24</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -2209,15 +2209,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>24</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>25</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -2247,15 +2247,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>25</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>26</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -2285,15 +2285,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>26</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>27</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -2323,15 +2323,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>27</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>28</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -2361,15 +2361,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>28</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>29</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -2399,15 +2399,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>29</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>30</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -2437,15 +2437,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>30</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>31</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -2475,15 +2475,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>31</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>32</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -2513,15 +2513,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>32</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>33</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -2551,15 +2551,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>33</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>34</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -2589,15 +2589,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>34</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>35</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -2627,15 +2627,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>35</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>36</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -2665,15 +2665,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>36</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>37</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -2703,15 +2703,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>37</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>38</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -2741,15 +2741,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>38</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>39</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -2779,15 +2779,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>39</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>40</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -2817,15 +2817,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>40</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>41</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -2855,15 +2855,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>41</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>42</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -2893,15 +2893,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>42</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>43</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -2931,15 +2931,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>43</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>44</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -2969,15 +2969,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>44</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>45</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -3007,15 +3007,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>45</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>46</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -3045,15 +3045,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>46</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>47</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -3083,15 +3083,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>47</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>48</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -3121,15 +3121,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>48</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>49</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -3159,15 +3159,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>49</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>50</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -3197,15 +3197,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>50</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>51</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -3235,15 +3235,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>51</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>52</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -3273,15 +3273,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>52</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>53</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -3311,15 +3311,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>53</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>54</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -3349,15 +3349,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>54</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>55</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -3387,15 +3387,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>55</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>56</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -3425,15 +3425,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>56</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>57</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -3463,15 +3463,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>57</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>58</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -3501,15 +3501,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>58</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>59</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -3539,15 +3539,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>59</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>60</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -3577,15 +3577,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>60</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>61</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -3615,15 +3615,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>61</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>62</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -3653,15 +3653,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>62</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>63</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -3691,15 +3691,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>63</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>64</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -3729,15 +3729,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>64</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>65</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -3767,15 +3767,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>65</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>66</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -3805,15 +3805,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>66</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>67</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -3843,15 +3843,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>67</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>68</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -3881,15 +3881,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>68</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>69</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -3919,15 +3919,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>69</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>70</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -3957,15 +3957,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>70</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>71</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -3995,15 +3995,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>71</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>72</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -4033,15 +4033,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>72</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>73</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -4071,15 +4071,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>73</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>74</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -4109,15 +4109,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>74</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>75</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -4147,15 +4147,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>75</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>76</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -4185,15 +4185,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>76</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>77</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -4223,15 +4223,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>77</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>78</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -4261,15 +4261,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>78</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>79</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -4299,15 +4299,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>79</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>80</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -4337,15 +4337,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>80</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>81</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -4375,15 +4375,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>81</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>82</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -4413,15 +4413,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>82</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>83</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -4451,15 +4451,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>83</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>84</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -4489,15 +4489,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>84</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>85</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -4527,15 +4527,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>85</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>86</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -4565,15 +4565,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>86</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>87</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -4603,15 +4603,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>87</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>88</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -4641,15 +4641,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>88</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>89</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -4679,15 +4679,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>89</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>90</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -4717,15 +4717,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>90</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>91</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -4755,15 +4755,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>91</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>92</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -4793,15 +4793,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>92</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>93</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -4831,15 +4831,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>93</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>94</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -4869,15 +4869,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>94</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>95</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -4907,15 +4907,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>95</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>96</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -4945,15 +4945,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>96</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>97</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -4983,15 +4983,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>97</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>98</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -5021,15 +5021,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>98</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>99</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -5059,15 +5059,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>99</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>100</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -5097,15 +5097,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>100</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>101</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -5135,15 +5135,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>101</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>102</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -5173,15 +5173,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>102</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>103</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -5211,15 +5211,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>103</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>104</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -5249,15 +5249,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>104</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>105</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -5287,15 +5287,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>105</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>106</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -5325,15 +5325,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>106</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>107</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -5363,15 +5363,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>107</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>108</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -5401,15 +5401,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>108</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>109</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -5439,15 +5439,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>109</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>110</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -5477,15 +5477,15 @@
   <spr:twoCellAnchor editAs="twoCell">
     <spr:from>
       <spr:col>4</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:colOff>10000</spr:colOff>
       <spr:row>110</spr:row>
-      <spr:rowOff>1</spr:rowOff>
-    </spr:from>
-    <spr:to>
-      <spr:col>5</spr:col>
-      <spr:colOff>1</spr:colOff>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>5</spr:col>
+      <spr:colOff>0</spr:colOff>
       <spr:row>111</spr:row>
-      <spr:rowOff>1</spr:rowOff>
+      <spr:rowOff>0</spr:rowOff>
     </spr:to>
     <spr:pic>
       <spr:nvPicPr>
@@ -5496,6 +5496,44 @@
       </spr:nvPicPr>
       <spr:blipFill>
         <a:blip r:embed="rId100"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </spr:blipFill>
+      <spr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </spr:spPr>
+    </spr:pic>
+    <spr:clientData/>
+  </spr:twoCellAnchor>
+  <spr:twoCellAnchor editAs="twoCell">
+    <spr:from>
+      <spr:col>4</spr:col>
+      <spr:colOff>10000</spr:colOff>
+      <spr:row>5</spr:row>
+      <spr:rowOff>10000</spr:rowOff>
+    </spr:from>
+    <spr:to>
+      <spr:col>9</spr:col>
+      <spr:colOff>0</spr:colOff>
+      <spr:row>9</spr:row>
+      <spr:rowOff>0</spr:rowOff>
+    </spr:to>
+    <spr:pic>
+      <spr:nvPicPr>
+        <spr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <spr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </spr:cNvPicPr>
+      </spr:nvPicPr>
+      <spr:blipFill>
+        <a:blip r:embed="rId101"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5815,178 +5853,178 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E6" sqref="E6:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="39"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="69" t="s">
         <v>335</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="45"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="74"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="45"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="74"/>
     </row>
     <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="50"/>
+      <c r="A5" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="60"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="52" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="40" t="s">
         <v>335</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="66" t="s">
+      <c r="D6" s="61"/>
+      <c r="E6" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="49"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="68"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="51" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="71"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="52"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="71"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
+    </row>
+    <row r="10" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="74"/>
-    </row>
-    <row r="10" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="51"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="23"/>
       <c r="D10" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" s="26"/>
       <c r="H10" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" s="28"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="C11" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="D11" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="E11" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="F11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="G11" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="H11" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="I11" s="29" t="s">
         <v>19</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8090,10 +8128,10 @@
       <c r="I111" s="75"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="B112" s="61"/>
+      <c r="A112" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B112" s="42"/>
       <c r="C112" s="17"/>
       <c r="D112" s="18"/>
       <c r="E112" s="17"/>
@@ -8119,20 +8157,20 @@
       <c r="C114" s="21"/>
       <c r="D114" s="21"/>
       <c r="E114" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F114" s="20"/>
       <c r="G114" s="20"/>
       <c r="H114" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I114" s="22"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="I114" s="22"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="B115" s="61"/>
+      <c r="B115" s="42"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -8156,40 +8194,40 @@
       <c r="A117" s="8"/>
       <c r="B117" s="9"/>
       <c r="C117" s="10"/>
-      <c r="D117" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="E117" s="62"/>
-      <c r="F117" s="63"/>
+      <c r="D117" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E117" s="43"/>
+      <c r="F117" s="44"/>
       <c r="G117" s="12"/>
       <c r="H117" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I117" s="11"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="B118" s="61"/>
-      <c r="C118" s="64"/>
-      <c r="D118" s="64"/>
-      <c r="E118" s="64"/>
-      <c r="F118" s="61"/>
-      <c r="G118" s="61"/>
-      <c r="H118" s="61"/>
-      <c r="I118" s="65"/>
+      <c r="A118" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B118" s="42"/>
+      <c r="C118" s="45"/>
+      <c r="D118" s="45"/>
+      <c r="E118" s="45"/>
+      <c r="F118" s="42"/>
+      <c r="G118" s="42"/>
+      <c r="H118" s="42"/>
+      <c r="I118" s="46"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A119" s="54"/>
-      <c r="B119" s="55"/>
-      <c r="C119" s="56"/>
-      <c r="D119" s="57"/>
-      <c r="E119" s="57"/>
-      <c r="F119" s="58"/>
-      <c r="G119" s="58"/>
-      <c r="H119" s="58"/>
-      <c r="I119" s="59"/>
+      <c r="A119" s="33"/>
+      <c r="B119" s="34"/>
+      <c r="C119" s="35"/>
+      <c r="D119" s="36"/>
+      <c r="E119" s="36"/>
+      <c r="F119" s="37"/>
+      <c r="G119" s="37"/>
+      <c r="H119" s="37"/>
+      <c r="I119" s="38"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="13"/>
@@ -8197,34 +8235,34 @@
       <c r="C120" s="10"/>
       <c r="D120" s="14"/>
       <c r="E120" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F120" s="15"/>
       <c r="G120" s="15"/>
       <c r="H120" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I120" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C4"/>
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="E6:I9"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C4"/>
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
     <mergeCell ref="A119:I119"/>
     <mergeCell ref="A112:B112"/>
     <mergeCell ref="A115:B115"/>
